--- a/output/reports/Kodiak_RF_HowMth_thru2022.xlsx
+++ b/output/reports/Kodiak_RF_HowMth_thru2022.xlsx
@@ -53,13 +53,13 @@
     <t xml:space="preserve">EASTSIDE</t>
   </si>
   <si>
+    <t xml:space="preserve">NORTHEAST</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKMA</t>
   </si>
   <si>
     <t xml:space="preserve">WKMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORTHEAST</t>
   </si>
 </sst>
 </file>
@@ -1264,12 +1264,24 @@
       <c r="C26" t="n">
         <v>2022</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="D26" t="n">
+        <v>7528.42519685039</v>
+      </c>
+      <c r="E26" t="n">
+        <v>216.650936096401</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3340.32998670363</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1351.08002434288</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10868.755183554</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1368.3401844168</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1978,15 +1990,23 @@
         <v>2022</v>
       </c>
       <c r="D51" t="n">
-        <v>1703</v>
+        <v>1604.75</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
+        <v>89.0041334546163</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100.654045490273</v>
+      </c>
+      <c r="G51" t="n">
+        <v>79.8863499625471</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1705.40404549027</v>
+      </c>
+      <c r="I51" t="n">
+        <v>119.597511187924</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1999,22 +2019,22 @@
         <v>1998</v>
       </c>
       <c r="D52" t="n">
-        <v>20.730769224</v>
+        <v>785.628865647</v>
       </c>
       <c r="E52" t="n">
-        <v>1.14890374009314</v>
+        <v>39.5741203662697</v>
       </c>
       <c r="F52" t="n">
-        <v>6.60125095369728</v>
+        <v>965.626256116472</v>
       </c>
       <c r="G52" t="n">
-        <v>4.01490344259029</v>
+        <v>305.08743882992</v>
       </c>
       <c r="H52" t="n">
-        <v>27.3320201776973</v>
+        <v>1751.25512176347</v>
       </c>
       <c r="I52" t="n">
-        <v>4.17605429290896</v>
+        <v>307.643391501531</v>
       </c>
     </row>
     <row r="53">
@@ -2028,22 +2048,22 @@
         <v>1999</v>
       </c>
       <c r="D53" t="n">
-        <v>68.788461516</v>
+        <v>1479.885713964</v>
       </c>
       <c r="E53" t="n">
-        <v>3.81227150121814</v>
+        <v>54.5493137588733</v>
       </c>
       <c r="F53" t="n">
-        <v>18.4085108802345</v>
+        <v>1036.07520766777</v>
       </c>
       <c r="G53" t="n">
-        <v>11.1871372849234</v>
+        <v>326.56371273883</v>
       </c>
       <c r="H53" t="n">
-        <v>87.1969723962345</v>
+        <v>2515.96092163177</v>
       </c>
       <c r="I53" t="n">
-        <v>11.818860124002</v>
+        <v>331.088335809846</v>
       </c>
     </row>
     <row r="54">
@@ -2057,22 +2077,22 @@
         <v>2000</v>
       </c>
       <c r="D54" t="n">
-        <v>4.71153846</v>
+        <v>1700.44117669</v>
       </c>
       <c r="E54" t="n">
-        <v>0.261114486384804</v>
+        <v>52.635738751584</v>
       </c>
       <c r="F54" t="n">
-        <v>14.1804650251419</v>
+        <v>1224.70402140759</v>
       </c>
       <c r="G54" t="n">
-        <v>8.61711940894431</v>
+        <v>385.942144822952</v>
       </c>
       <c r="H54" t="n">
-        <v>18.8920034851419</v>
+        <v>2925.14519809759</v>
       </c>
       <c r="I54" t="n">
-        <v>8.6210746246048</v>
+        <v>389.514903623039</v>
       </c>
     </row>
     <row r="55">
@@ -2086,22 +2106,22 @@
         <v>2001</v>
       </c>
       <c r="D55" t="n">
-        <v>7.538461536</v>
+        <v>1762.819671888</v>
       </c>
       <c r="E55" t="n">
-        <v>0.417783178215686</v>
+        <v>51.7581548913792</v>
       </c>
       <c r="F55" t="n">
-        <v>6.49741105285277</v>
+        <v>1329.20606638286</v>
       </c>
       <c r="G55" t="n">
-        <v>3.95352481874147</v>
+        <v>420.521289421843</v>
       </c>
       <c r="H55" t="n">
-        <v>14.0358725888528</v>
+        <v>3092.02573827086</v>
       </c>
       <c r="I55" t="n">
-        <v>3.97553786001401</v>
+        <v>423.694537910001</v>
       </c>
     </row>
     <row r="56">
@@ -2115,22 +2135,22 @@
         <v>2002</v>
       </c>
       <c r="D56" t="n">
-        <v>82.923076896</v>
+        <v>1799.999999064</v>
       </c>
       <c r="E56" t="n">
-        <v>4.59561496037255</v>
+        <v>90.0000041831999</v>
       </c>
       <c r="F56" t="n">
-        <v>17.6722646101624</v>
+        <v>1071.74944537003</v>
       </c>
       <c r="G56" t="n">
-        <v>10.7811108006805</v>
+        <v>341.679924084436</v>
       </c>
       <c r="H56" t="n">
-        <v>100.595341506162</v>
+        <v>2871.74944443403</v>
       </c>
       <c r="I56" t="n">
-        <v>11.7197281094977</v>
+        <v>353.334361866097</v>
       </c>
     </row>
     <row r="57">
@@ -2144,22 +2164,22 @@
         <v>2003</v>
       </c>
       <c r="D57" t="n">
-        <v>97.999999968</v>
+        <v>2126.989130004</v>
       </c>
       <c r="E57" t="n">
-        <v>5.43118131680392</v>
+        <v>90.4487666414639</v>
       </c>
       <c r="F57" t="n">
-        <v>30.951747805656</v>
+        <v>1564.92003031279</v>
       </c>
       <c r="G57" t="n">
-        <v>18.8150435113355</v>
+        <v>493.657757228695</v>
       </c>
       <c r="H57" t="n">
-        <v>128.951747773656</v>
+        <v>3691.90916031679</v>
       </c>
       <c r="I57" t="n">
-        <v>19.5832477599975</v>
+        <v>501.875443371189</v>
       </c>
     </row>
     <row r="58">
@@ -2173,22 +2193,22 @@
         <v>2004</v>
       </c>
       <c r="D58" t="n">
-        <v>149.826923028</v>
+        <v>2379.666667768</v>
       </c>
       <c r="E58" t="n">
-        <v>8.30344066703677</v>
+        <v>102.799656882462</v>
       </c>
       <c r="F58" t="n">
-        <v>45.7487825252492</v>
+        <v>1998.11777578533</v>
       </c>
       <c r="G58" t="n">
-        <v>27.8332149796035</v>
+        <v>631.884419815684</v>
       </c>
       <c r="H58" t="n">
-        <v>195.575705553249</v>
+        <v>4377.78444355333</v>
       </c>
       <c r="I58" t="n">
-        <v>29.0453952118374</v>
+        <v>640.191916116531</v>
       </c>
     </row>
     <row r="59">
@@ -2202,22 +2222,22 @@
         <v>2005</v>
       </c>
       <c r="D59" t="n">
-        <v>120.615384576</v>
+        <v>4034.243696425</v>
       </c>
       <c r="E59" t="n">
-        <v>6.68453085145098</v>
+        <v>99.7021791731505</v>
       </c>
       <c r="F59" t="n">
-        <v>69.2010064744558</v>
+        <v>2970.20030548224</v>
       </c>
       <c r="G59" t="n">
-        <v>42.0109170891774</v>
+        <v>933.286309081398</v>
       </c>
       <c r="H59" t="n">
-        <v>189.816391050456</v>
+        <v>7004.44400190724</v>
       </c>
       <c r="I59" t="n">
-        <v>42.539394769763</v>
+        <v>938.596750074628</v>
       </c>
     </row>
     <row r="60">
@@ -2231,22 +2251,22 @@
         <v>2006</v>
       </c>
       <c r="D60" t="n">
-        <v>179.980769172</v>
+        <v>3047.705358651</v>
       </c>
       <c r="E60" t="n">
-        <v>9.97457337989951</v>
+        <v>113.755178977355</v>
       </c>
       <c r="F60" t="n">
-        <v>70.9465214892895</v>
+        <v>2295.15194237306</v>
       </c>
       <c r="G60" t="n">
-        <v>43.1665947115845</v>
+        <v>725.981580677206</v>
       </c>
       <c r="H60" t="n">
-        <v>250.92729066129</v>
+        <v>5342.85730102406</v>
       </c>
       <c r="I60" t="n">
-        <v>44.3040293100435</v>
+        <v>734.83977588774</v>
       </c>
     </row>
     <row r="61">
@@ -2260,22 +2280,22 @@
         <v>2007</v>
       </c>
       <c r="D61" t="n">
-        <v>913.096153548</v>
+        <v>2885.41772358</v>
       </c>
       <c r="E61" t="n">
-        <v>50.603987461375</v>
+        <v>255.63715673828</v>
       </c>
       <c r="F61" t="n">
-        <v>301.148205699696</v>
+        <v>3537.08714502888</v>
       </c>
       <c r="G61" t="n">
-        <v>182.875776470996</v>
+        <v>1112.37894902492</v>
       </c>
       <c r="H61" t="n">
-        <v>1214.2443592477</v>
+        <v>6422.50486860888</v>
       </c>
       <c r="I61" t="n">
-        <v>189.74802546235</v>
+        <v>1141.3751715098</v>
       </c>
     </row>
     <row r="62">
@@ -2289,22 +2309,22 @@
         <v>2008</v>
       </c>
       <c r="D62" t="n">
-        <v>981.884615064</v>
+        <v>4839.094490862</v>
       </c>
       <c r="E62" t="n">
-        <v>54.4162589625932</v>
+        <v>197.331097813854</v>
       </c>
       <c r="F62" t="n">
-        <v>229.860448004695</v>
+        <v>3379.89955769512</v>
       </c>
       <c r="G62" t="n">
-        <v>140.762011122775</v>
+        <v>1089.54486210973</v>
       </c>
       <c r="H62" t="n">
-        <v>1211.74506306869</v>
+        <v>8218.99404855712</v>
       </c>
       <c r="I62" t="n">
-        <v>150.914124636537</v>
+        <v>1107.27032323373</v>
       </c>
     </row>
     <row r="63">
@@ -2318,22 +2338,22 @@
         <v>2009</v>
       </c>
       <c r="D63" t="n">
-        <v>721</v>
+        <v>4480.708332657</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>318.387748720256</v>
       </c>
       <c r="F63" t="n">
-        <v>132.801636788471</v>
+        <v>2771.61761953392</v>
       </c>
       <c r="G63" t="n">
-        <v>82.1811024664534</v>
+        <v>920.44153302867</v>
       </c>
       <c r="H63" t="n">
-        <v>853.801636788471</v>
+        <v>7252.32595219092</v>
       </c>
       <c r="I63" t="n">
-        <v>82.1811024664534</v>
+        <v>973.952449691114</v>
       </c>
     </row>
     <row r="64">
@@ -2347,22 +2367,22 @@
         <v>2010</v>
       </c>
       <c r="D64" t="n">
-        <v>376.9230768</v>
+        <v>3591.15151278</v>
       </c>
       <c r="E64" t="n">
-        <v>20.8891589107843</v>
+        <v>337.957201878415</v>
       </c>
       <c r="F64" t="n">
-        <v>141.341133980132</v>
+        <v>4742.46478220619</v>
       </c>
       <c r="G64" t="n">
-        <v>87.3973309365913</v>
+        <v>1571.52336352942</v>
       </c>
       <c r="H64" t="n">
-        <v>518.264210780132</v>
+        <v>8333.61629498619</v>
       </c>
       <c r="I64" t="n">
-        <v>89.8590586131419</v>
+        <v>1607.45163299563</v>
       </c>
     </row>
     <row r="65">
@@ -2376,22 +2396,22 @@
         <v>2011</v>
       </c>
       <c r="D65" t="n">
-        <v>520.153845984</v>
+        <v>5700.789857851</v>
       </c>
       <c r="E65" t="n">
-        <v>28.8270392968824</v>
+        <v>194.615758381807</v>
       </c>
       <c r="F65" t="n">
-        <v>116.362572991204</v>
+        <v>4310.23463999862</v>
       </c>
       <c r="G65" t="n">
-        <v>82.8855389635772</v>
+        <v>1097.98046798452</v>
       </c>
       <c r="H65" t="n">
-        <v>636.516418975204</v>
+        <v>10011.0244978496</v>
       </c>
       <c r="I65" t="n">
-        <v>87.7554030468021</v>
+        <v>1115.09479484304</v>
       </c>
     </row>
     <row r="66">
@@ -2405,22 +2425,22 @@
         <v>2012</v>
       </c>
       <c r="D66" t="n">
-        <v>535.230769056</v>
+        <v>4725.566432035</v>
       </c>
       <c r="E66" t="n">
-        <v>29.6626056533137</v>
+        <v>225.752091765035</v>
       </c>
       <c r="F66" t="n">
-        <v>440.352941049</v>
+        <v>3679.65126721513</v>
       </c>
       <c r="G66" t="n">
-        <v>252.667988864175</v>
+        <v>1075.27039221552</v>
       </c>
       <c r="H66" t="n">
-        <v>975.583710105</v>
+        <v>8405.21769925013</v>
       </c>
       <c r="I66" t="n">
-        <v>254.403189388048</v>
+        <v>1098.71307597189</v>
       </c>
     </row>
     <row r="67">
@@ -2434,22 +2454,22 @@
         <v>2013</v>
       </c>
       <c r="D67" t="n">
-        <v>817.923076656</v>
+        <v>5034.929204943</v>
       </c>
       <c r="E67" t="n">
-        <v>45.329474836402</v>
+        <v>218.897953950472</v>
       </c>
       <c r="F67" t="n">
-        <v>140.2938981</v>
+        <v>5768.19309010577</v>
       </c>
       <c r="G67" t="n">
-        <v>92.4440693756767</v>
+        <v>1495.77000908464</v>
       </c>
       <c r="H67" t="n">
-        <v>958.216974756</v>
+        <v>10803.1222950488</v>
       </c>
       <c r="I67" t="n">
-        <v>102.959541819488</v>
+        <v>1511.70242915753</v>
       </c>
     </row>
     <row r="68">
@@ -2463,22 +2483,22 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>524.865384444</v>
+        <v>8442.7272734</v>
       </c>
       <c r="E68" t="n">
-        <v>29.0881537832672</v>
+        <v>229.622336254991</v>
       </c>
       <c r="F68" t="n">
-        <v>171.035382908279</v>
+        <v>4208.5613123903</v>
       </c>
       <c r="G68" t="n">
-        <v>105.29942994445</v>
+        <v>1015.23097916693</v>
       </c>
       <c r="H68" t="n">
-        <v>695.900767352279</v>
+        <v>12651.2885857903</v>
       </c>
       <c r="I68" t="n">
-        <v>109.243263577875</v>
+        <v>1040.87480436767</v>
       </c>
     </row>
     <row r="69">
@@ -2492,22 +2512,22 @@
         <v>2015</v>
       </c>
       <c r="D69" t="n">
-        <v>515.442307524</v>
+        <v>8247.844657674</v>
       </c>
       <c r="E69" t="n">
-        <v>28.5659248104976</v>
+        <v>535.864545816778</v>
       </c>
       <c r="F69" t="n">
-        <v>206.145008452946</v>
+        <v>7883.84399371125</v>
       </c>
       <c r="G69" t="n">
-        <v>182.674400985635</v>
+        <v>2340.20757749109</v>
       </c>
       <c r="H69" t="n">
-        <v>721.587315976946</v>
+        <v>16131.6886513853</v>
       </c>
       <c r="I69" t="n">
-        <v>184.894426188946</v>
+        <v>2400.77535750643</v>
       </c>
     </row>
     <row r="70">
@@ -2521,22 +2541,22 @@
         <v>2016</v>
       </c>
       <c r="D70" t="n">
-        <v>644.442307802</v>
+        <v>7011.44860374</v>
       </c>
       <c r="E70" t="n">
-        <v>29.433033805505</v>
+        <v>358.005981380974</v>
       </c>
       <c r="F70" t="n">
-        <v>78.7806777468153</v>
+        <v>11804.208772993</v>
       </c>
       <c r="G70" t="n">
-        <v>55.3029659677408</v>
+        <v>3977.90356440102</v>
       </c>
       <c r="H70" t="n">
-        <v>723.222985548815</v>
+        <v>18815.657376733</v>
       </c>
       <c r="I70" t="n">
-        <v>62.6475979094578</v>
+        <v>3993.98110290708</v>
       </c>
     </row>
     <row r="71">
@@ -2550,22 +2570,22 @@
         <v>2017</v>
       </c>
       <c r="D71" t="n">
-        <v>560.307692261</v>
+        <v>4038.585771836</v>
       </c>
       <c r="E71" t="n">
-        <v>15.0178228075843</v>
+        <v>203.455304106302</v>
       </c>
       <c r="F71" t="n">
-        <v>163.252459266649</v>
+        <v>2676.35273945075</v>
       </c>
       <c r="G71" t="n">
-        <v>95.8162504083736</v>
+        <v>731.251966165966</v>
       </c>
       <c r="H71" t="n">
-        <v>723.560151527649</v>
+        <v>6714.93851128675</v>
       </c>
       <c r="I71" t="n">
-        <v>96.9860239632502</v>
+        <v>759.027996051911</v>
       </c>
     </row>
     <row r="72">
@@ -2579,22 +2599,22 @@
         <v>2018</v>
       </c>
       <c r="D72" t="n">
-        <v>564.442307508</v>
+        <v>6128.378380413</v>
       </c>
       <c r="E72" t="n">
-        <v>31.2815154688995</v>
+        <v>193.796393727445</v>
       </c>
       <c r="F72" t="n">
-        <v>81.7218628728183</v>
+        <v>6598.01609074669</v>
       </c>
       <c r="G72" t="n">
-        <v>50.0308295679809</v>
+        <v>1886.98999263689</v>
       </c>
       <c r="H72" t="n">
-        <v>646.164170380818</v>
+        <v>12726.3944711597</v>
       </c>
       <c r="I72" t="n">
-        <v>59.0052295757872</v>
+        <v>1896.91546320165</v>
       </c>
     </row>
     <row r="73">
@@ -2608,22 +2628,22 @@
         <v>2019</v>
       </c>
       <c r="D73" t="n">
-        <v>554.076922896</v>
+        <v>7487.152072688</v>
       </c>
       <c r="E73" t="n">
-        <v>30.7307274301146</v>
+        <v>260.574377613226</v>
       </c>
       <c r="F73" t="n">
-        <v>181.380475150191</v>
+        <v>8114.132306844</v>
       </c>
       <c r="G73" t="n">
-        <v>138.450870146737</v>
+        <v>1788.08603787956</v>
       </c>
       <c r="H73" t="n">
-        <v>735.457398046191</v>
+        <v>15601.284379532</v>
       </c>
       <c r="I73" t="n">
-        <v>141.820383065244</v>
+        <v>1806.97279590157</v>
       </c>
     </row>
     <row r="74">
@@ -2637,22 +2657,22 @@
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>240.28846146</v>
+        <v>3108.986485469</v>
       </c>
       <c r="E74" t="n">
-        <v>13.316838805625</v>
+        <v>213.871476305007</v>
       </c>
       <c r="F74" t="n">
-        <v>41.2591136225653</v>
+        <v>3918.75580987237</v>
       </c>
       <c r="G74" t="n">
-        <v>20.8272213080063</v>
+        <v>1199.41439216153</v>
       </c>
       <c r="H74" t="n">
-        <v>281.547575082565</v>
+        <v>7027.74229534137</v>
       </c>
       <c r="I74" t="n">
-        <v>24.7206663176313</v>
+        <v>1218.3332436165</v>
       </c>
     </row>
     <row r="75">
@@ -2666,22 +2686,22 @@
         <v>2021</v>
       </c>
       <c r="D75" t="n">
-        <v>1345.615384176</v>
+        <v>8062.225226142</v>
       </c>
       <c r="E75" t="n">
-        <v>74.5742973115</v>
+        <v>149.207098919509</v>
       </c>
       <c r="F75" t="n">
-        <v>227.241559260479</v>
+        <v>6210.11139500298</v>
       </c>
       <c r="G75" t="n">
-        <v>93.934581257401</v>
+        <v>1472.73830652624</v>
       </c>
       <c r="H75" t="n">
-        <v>1572.85694343648</v>
+        <v>14272.336621145</v>
       </c>
       <c r="I75" t="n">
-        <v>119.937614514827</v>
+        <v>1480.27729762965</v>
       </c>
     </row>
     <row r="76">
@@ -2689,28 +2709,28 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="D76" t="n">
-        <v>94.082474187</v>
+        <v>9386.53543307087</v>
       </c>
       <c r="E76" t="n">
-        <v>4.73917306330967</v>
+        <v>270.123118062941</v>
       </c>
       <c r="F76" t="n">
-        <v>35.5721701211976</v>
+        <v>3330.38801273346</v>
       </c>
       <c r="G76" t="n">
-        <v>21.8377155081046</v>
+        <v>976.323887265691</v>
       </c>
       <c r="H76" t="n">
-        <v>129.654644308198</v>
+        <v>12716.9234458043</v>
       </c>
       <c r="I76" t="n">
-        <v>22.3460417062377</v>
+        <v>1013.00287845476</v>
       </c>
     </row>
     <row r="77">
@@ -2721,25 +2741,25 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D77" t="n">
-        <v>195.390476148</v>
+        <v>20.730769224</v>
       </c>
       <c r="E77" t="n">
-        <v>7.20218885034265</v>
+        <v>1.14890374009314</v>
       </c>
       <c r="F77" t="n">
-        <v>46.8874916203358</v>
+        <v>6.60125095369728</v>
       </c>
       <c r="G77" t="n">
-        <v>28.7613980693946</v>
+        <v>4.01490344259029</v>
       </c>
       <c r="H77" t="n">
-        <v>242.277967768336</v>
+        <v>27.3320201776973</v>
       </c>
       <c r="I77" t="n">
-        <v>29.6494442299038</v>
+        <v>4.17605429290896</v>
       </c>
     </row>
     <row r="78">
@@ -2750,25 +2770,25 @@
         <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D78" t="n">
-        <v>280.823529448</v>
+        <v>68.788461516</v>
       </c>
       <c r="E78" t="n">
-        <v>8.69265819597205</v>
+        <v>3.81227150121814</v>
       </c>
       <c r="F78" t="n">
-        <v>82.7847968223819</v>
+        <v>18.4085108802345</v>
       </c>
       <c r="G78" t="n">
-        <v>50.777965565591</v>
+        <v>11.1871372849234</v>
       </c>
       <c r="H78" t="n">
-        <v>363.608326270382</v>
+        <v>87.1969723962345</v>
       </c>
       <c r="I78" t="n">
-        <v>51.5166389964674</v>
+        <v>11.818860124002</v>
       </c>
     </row>
     <row r="79">
@@ -2779,25 +2799,25 @@
         <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D79" t="n">
-        <v>1101.049180176</v>
+        <v>4.71153846</v>
       </c>
       <c r="E79" t="n">
-        <v>32.3279090421883</v>
+        <v>0.261114486384804</v>
       </c>
       <c r="F79" t="n">
-        <v>279.627719884026</v>
+        <v>14.1804650251419</v>
       </c>
       <c r="G79" t="n">
-        <v>171.73930383137</v>
+        <v>8.61711940894431</v>
       </c>
       <c r="H79" t="n">
-        <v>1380.67690006003</v>
+        <v>18.8920034851419</v>
       </c>
       <c r="I79" t="n">
-        <v>174.755492570401</v>
+        <v>8.6210746246048</v>
       </c>
     </row>
     <row r="80">
@@ -2808,25 +2828,25 @@
         <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D80" t="n">
-        <v>711.403508402</v>
+        <v>7.538461536</v>
       </c>
       <c r="E80" t="n">
-        <v>35.5701770918982</v>
+        <v>0.417783178215686</v>
       </c>
       <c r="F80" t="n">
-        <v>154.427929759837</v>
+        <v>6.49741105285277</v>
       </c>
       <c r="G80" t="n">
-        <v>95.0883604193731</v>
+        <v>3.95352481874147</v>
       </c>
       <c r="H80" t="n">
-        <v>865.831438161837</v>
+        <v>14.0358725888528</v>
       </c>
       <c r="I80" t="n">
-        <v>101.523562711292</v>
+        <v>3.97553786001401</v>
       </c>
     </row>
     <row r="81">
@@ -2837,25 +2857,25 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D81" t="n">
-        <v>822.630434616</v>
+        <v>82.923076896</v>
       </c>
       <c r="E81" t="n">
-        <v>34.9817999364241</v>
+        <v>4.59561496037255</v>
       </c>
       <c r="F81" t="n">
-        <v>233.9141386746</v>
+        <v>17.6722646101624</v>
       </c>
       <c r="G81" t="n">
-        <v>143.525011324477</v>
+        <v>10.7811108006805</v>
       </c>
       <c r="H81" t="n">
-        <v>1056.5445732906</v>
+        <v>100.595341506162</v>
       </c>
       <c r="I81" t="n">
-        <v>147.726623201382</v>
+        <v>11.7197281094977</v>
       </c>
     </row>
     <row r="82">
@@ -2866,25 +2886,25 @@
         <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D82" t="n">
-        <v>555.358974616</v>
+        <v>97.999999968</v>
       </c>
       <c r="E82" t="n">
-        <v>23.9910542137689</v>
+        <v>5.43118131680392</v>
       </c>
       <c r="F82" t="n">
-        <v>182.146457993463</v>
+        <v>30.951747805656</v>
       </c>
       <c r="G82" t="n">
-        <v>111.853795572652</v>
+        <v>18.8150435113355</v>
       </c>
       <c r="H82" t="n">
-        <v>737.505432609463</v>
+        <v>128.951747773656</v>
       </c>
       <c r="I82" t="n">
-        <v>114.39773715549</v>
+        <v>19.5832477599975</v>
       </c>
     </row>
     <row r="83">
@@ -2895,25 +2915,25 @@
         <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D83" t="n">
-        <v>1056.831932497</v>
+        <v>149.826923028</v>
       </c>
       <c r="E83" t="n">
-        <v>26.118513064319</v>
+        <v>8.30344066703677</v>
       </c>
       <c r="F83" t="n">
-        <v>300.08921404355</v>
+        <v>45.7487825252492</v>
       </c>
       <c r="G83" t="n">
-        <v>183.890338323103</v>
+        <v>27.8332149796035</v>
       </c>
       <c r="H83" t="n">
-        <v>1356.92114654055</v>
+        <v>195.575705553249</v>
       </c>
       <c r="I83" t="n">
-        <v>185.735923432373</v>
+        <v>29.0453952118374</v>
       </c>
     </row>
     <row r="84">
@@ -2924,25 +2944,25 @@
         <v>13</v>
       </c>
       <c r="C84" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D84" t="n">
-        <v>504.053571678</v>
+        <v>120.615384576</v>
       </c>
       <c r="E84" t="n">
-        <v>18.8137295154363</v>
+        <v>6.68453085145098</v>
       </c>
       <c r="F84" t="n">
-        <v>169.645417292965</v>
+        <v>69.2010064744558</v>
       </c>
       <c r="G84" t="n">
-        <v>104.184841423543</v>
+        <v>42.0109170891774</v>
       </c>
       <c r="H84" t="n">
-        <v>673.698988970966</v>
+        <v>189.816391050456</v>
       </c>
       <c r="I84" t="n">
-        <v>105.869908853879</v>
+        <v>42.539394769763</v>
       </c>
     </row>
     <row r="85">
@@ -2953,25 +2973,25 @@
         <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D85" t="n">
-        <v>811.29113982</v>
+        <v>179.980769172</v>
       </c>
       <c r="E85" t="n">
-        <v>71.8773432961458</v>
+        <v>9.97457337989951</v>
       </c>
       <c r="F85" t="n">
-        <v>424.219336410661</v>
+        <v>70.9465214892895</v>
       </c>
       <c r="G85" t="n">
-        <v>260.029985369077</v>
+        <v>43.1665947115845</v>
       </c>
       <c r="H85" t="n">
-        <v>1235.51047623066</v>
+        <v>250.92729066129</v>
       </c>
       <c r="I85" t="n">
-        <v>269.781292476618</v>
+        <v>44.3040293100435</v>
       </c>
     </row>
     <row r="86">
@@ -2982,25 +3002,25 @@
         <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D86" t="n">
-        <v>744.0944886</v>
+        <v>913.096153548</v>
       </c>
       <c r="E86" t="n">
-        <v>30.3430698842421</v>
+        <v>50.603987461375</v>
       </c>
       <c r="F86" t="n">
-        <v>239.168043675549</v>
+        <v>301.148205699696</v>
       </c>
       <c r="G86" t="n">
-        <v>147.819777220626</v>
+        <v>182.875776470996</v>
       </c>
       <c r="H86" t="n">
-        <v>983.262532275549</v>
+        <v>1214.2443592477</v>
       </c>
       <c r="I86" t="n">
-        <v>150.901916580127</v>
+        <v>189.74802546235</v>
       </c>
     </row>
     <row r="87">
@@ -3011,25 +3031,25 @@
         <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D87" t="n">
-        <v>1116.680555387</v>
+        <v>981.884615064</v>
       </c>
       <c r="E87" t="n">
-        <v>79.3484828008261</v>
+        <v>54.4162589625932</v>
       </c>
       <c r="F87" t="n">
-        <v>298.017307179693</v>
+        <v>229.860448004695</v>
       </c>
       <c r="G87" t="n">
-        <v>186.1051263341</v>
+        <v>140.762011122775</v>
       </c>
       <c r="H87" t="n">
-        <v>1414.69786256669</v>
+        <v>1211.74506306869</v>
       </c>
       <c r="I87" t="n">
-        <v>202.314853064782</v>
+        <v>150.914124636537</v>
       </c>
     </row>
     <row r="88">
@@ -3040,25 +3060,25 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D88" t="n">
-        <v>424.535353255</v>
+        <v>721</v>
       </c>
       <c r="E88" t="n">
-        <v>39.9523048732235</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>273.150862269316</v>
+        <v>132.801636788471</v>
       </c>
       <c r="G88" t="n">
-        <v>170.445252150609</v>
+        <v>82.1811024664534</v>
       </c>
       <c r="H88" t="n">
-        <v>697.686215524316</v>
+        <v>853.801636788471</v>
       </c>
       <c r="I88" t="n">
-        <v>175.065046897911</v>
+        <v>82.1811024664534</v>
       </c>
     </row>
     <row r="89">
@@ -3069,25 +3089,25 @@
         <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D89" t="n">
-        <v>963.210145397</v>
+        <v>376.9230768</v>
       </c>
       <c r="E89" t="n">
-        <v>32.8824386798485</v>
+        <v>20.8891589107843</v>
       </c>
       <c r="F89" t="n">
-        <v>230.698511909992</v>
+        <v>141.341133980132</v>
       </c>
       <c r="G89" t="n">
-        <v>164.327498148398</v>
+        <v>87.3973309365913</v>
       </c>
       <c r="H89" t="n">
-        <v>1193.90865730699</v>
+        <v>518.264210780132</v>
       </c>
       <c r="I89" t="n">
-        <v>167.585146779916</v>
+        <v>89.8590586131419</v>
       </c>
     </row>
     <row r="90">
@@ -3098,25 +3118,25 @@
         <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D90" t="n">
-        <v>998.43356611</v>
+        <v>520.153845984</v>
       </c>
       <c r="E90" t="n">
-        <v>47.6976610697422</v>
+        <v>28.8270392968824</v>
       </c>
       <c r="F90" t="n">
-        <v>838.013712432029</v>
+        <v>116.362572991204</v>
       </c>
       <c r="G90" t="n">
-        <v>480.839843731715</v>
+        <v>82.8855389635772</v>
       </c>
       <c r="H90" t="n">
-        <v>1836.44727854203</v>
+        <v>636.516418975204</v>
       </c>
       <c r="I90" t="n">
-        <v>483.199774618598</v>
+        <v>87.7554030468021</v>
       </c>
     </row>
     <row r="91">
@@ -3127,25 +3147,25 @@
         <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D91" t="n">
-        <v>877.752212634</v>
+        <v>535.230769056</v>
       </c>
       <c r="E91" t="n">
-        <v>38.1610456870878</v>
+        <v>29.6626056533137</v>
       </c>
       <c r="F91" t="n">
-        <v>268.79497578</v>
+        <v>440.352941049</v>
       </c>
       <c r="G91" t="n">
-        <v>177.117477847311</v>
+        <v>252.667988864175</v>
       </c>
       <c r="H91" t="n">
-        <v>1146.547188414</v>
+        <v>975.583710105</v>
       </c>
       <c r="I91" t="n">
-        <v>181.181859927877</v>
+        <v>254.403189388048</v>
       </c>
     </row>
     <row r="92">
@@ -3156,25 +3176,25 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>1431.840909205</v>
+        <v>817.923076656</v>
       </c>
       <c r="E92" t="n">
-        <v>38.9427070270288</v>
+        <v>45.329474836402</v>
       </c>
       <c r="F92" t="n">
-        <v>627.566274805874</v>
+        <v>140.2938981</v>
       </c>
       <c r="G92" t="n">
-        <v>386.366667912559</v>
+        <v>92.4440693756767</v>
       </c>
       <c r="H92" t="n">
-        <v>2059.40718401087</v>
+        <v>958.216974756</v>
       </c>
       <c r="I92" t="n">
-        <v>388.324267210339</v>
+        <v>102.959541819488</v>
       </c>
     </row>
     <row r="93">
@@ -3185,25 +3205,25 @@
         <v>13</v>
       </c>
       <c r="C93" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>1163.184465664</v>
+        <v>524.865384444</v>
       </c>
       <c r="E93" t="n">
-        <v>75.5723878497431</v>
+        <v>29.0881537832672</v>
       </c>
       <c r="F93" t="n">
-        <v>676.382087508777</v>
+        <v>171.035382908279</v>
       </c>
       <c r="G93" t="n">
-        <v>599.37271147306</v>
+        <v>105.29942994445</v>
       </c>
       <c r="H93" t="n">
-        <v>1839.56655317278</v>
+        <v>695.900767352279</v>
       </c>
       <c r="I93" t="n">
-        <v>604.11822772027</v>
+        <v>109.243263577875</v>
       </c>
     </row>
     <row r="94">
@@ -3214,25 +3234,25 @@
         <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>1441.43302296</v>
+        <v>515.442307524</v>
       </c>
       <c r="E94" t="n">
-        <v>73.5998611905213</v>
+        <v>28.5659248104976</v>
       </c>
       <c r="F94" t="n">
-        <v>246.246566804751</v>
+        <v>206.145008452946</v>
       </c>
       <c r="G94" t="n">
-        <v>133.082799995529</v>
+        <v>182.674400985635</v>
       </c>
       <c r="H94" t="n">
-        <v>1687.67958976475</v>
+        <v>721.587315976946</v>
       </c>
       <c r="I94" t="n">
-        <v>152.078832261147</v>
+        <v>184.894426188946</v>
       </c>
     </row>
     <row r="95">
@@ -3243,25 +3263,25 @@
         <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>1434.514643562</v>
+        <v>644.442307802</v>
       </c>
       <c r="E95" t="n">
-        <v>72.2677762810438</v>
+        <v>29.433033805505</v>
       </c>
       <c r="F95" t="n">
-        <v>710.613933054078</v>
+        <v>78.7806777468153</v>
       </c>
       <c r="G95" t="n">
-        <v>417.074038939752</v>
+        <v>55.3029659677408</v>
       </c>
       <c r="H95" t="n">
-        <v>2145.12857661608</v>
+        <v>723.222985548815</v>
       </c>
       <c r="I95" t="n">
-        <v>423.28877311609</v>
+        <v>62.6475979094578</v>
       </c>
     </row>
     <row r="96">
@@ -3272,25 +3292,25 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D96" t="n">
-        <v>1985.759034461</v>
+        <v>560.307692261</v>
       </c>
       <c r="E96" t="n">
-        <v>196.671552133086</v>
+        <v>15.0178228075843</v>
       </c>
       <c r="F96" t="n">
-        <v>522.605832469841</v>
+        <v>163.252459266649</v>
       </c>
       <c r="G96" t="n">
-        <v>319.943799815508</v>
+        <v>95.8162504083736</v>
       </c>
       <c r="H96" t="n">
-        <v>2508.36486693084</v>
+        <v>723.560151527649</v>
       </c>
       <c r="I96" t="n">
-        <v>375.557897612103</v>
+        <v>96.9860239632502</v>
       </c>
     </row>
     <row r="97">
@@ -3301,25 +3321,25 @@
         <v>13</v>
       </c>
       <c r="C97" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D97" t="n">
-        <v>4473.585252832</v>
+        <v>564.442307508</v>
       </c>
       <c r="E97" t="n">
-        <v>155.693604409173</v>
+        <v>31.2815154688995</v>
       </c>
       <c r="F97" t="n">
-        <v>3581.44220532319</v>
+        <v>81.7218628728183</v>
       </c>
       <c r="G97" t="n">
-        <v>1529.19122946116</v>
+        <v>50.0308295679809</v>
       </c>
       <c r="H97" t="n">
-        <v>8055.02745815519</v>
+        <v>646.164170380818</v>
       </c>
       <c r="I97" t="n">
-        <v>1537.09671612259</v>
+        <v>59.0052295757872</v>
       </c>
     </row>
     <row r="98">
@@ -3330,25 +3350,25 @@
         <v>13</v>
       </c>
       <c r="C98" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D98" t="n">
-        <v>2568.648647808</v>
+        <v>554.076922896</v>
       </c>
       <c r="E98" t="n">
-        <v>176.700889818337</v>
+        <v>30.7307274301146</v>
       </c>
       <c r="F98" t="n">
-        <v>551.260011480301</v>
+        <v>181.380475150191</v>
       </c>
       <c r="G98" t="n">
-        <v>278.270986681474</v>
+        <v>138.450870146737</v>
       </c>
       <c r="H98" t="n">
-        <v>3119.9086592883</v>
+        <v>735.457398046191</v>
       </c>
       <c r="I98" t="n">
-        <v>329.633048238906</v>
+        <v>141.820383065244</v>
       </c>
     </row>
     <row r="99">
@@ -3359,25 +3379,25 @@
         <v>13</v>
       </c>
       <c r="C99" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D99" t="n">
-        <v>1292.4375</v>
+        <v>240.28846146</v>
       </c>
       <c r="E99" t="n">
-        <v>276.031559895752</v>
+        <v>13.316838805625</v>
       </c>
       <c r="F99" t="n">
-        <v>1110.14926977807</v>
+        <v>41.2591136225653</v>
       </c>
       <c r="G99" t="n">
-        <v>458.901123232827</v>
+        <v>20.8272213080063</v>
       </c>
       <c r="H99" t="n">
-        <v>2402.58676977807</v>
+        <v>281.547575082565</v>
       </c>
       <c r="I99" t="n">
-        <v>535.521860396784</v>
+        <v>24.7206663176313</v>
       </c>
     </row>
     <row r="100">
@@ -3388,31 +3408,780 @@
         <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+        <v>2021</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1345.615384176</v>
+      </c>
+      <c r="E100" t="n">
+        <v>74.5742973115</v>
+      </c>
+      <c r="F100" t="n">
+        <v>227.241559260479</v>
+      </c>
+      <c r="G100" t="n">
+        <v>93.934581257401</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1572.85694343648</v>
+      </c>
+      <c r="I100" t="n">
+        <v>119.937614514827</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" t="n">
         <v>2022</v>
       </c>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
+      <c r="D101" t="n">
+        <v>1047.84615384615</v>
+      </c>
+      <c r="E101" t="n">
+        <v>58.1166156203953</v>
+      </c>
+      <c r="F101" t="n">
+        <v>516.307471964895</v>
+      </c>
+      <c r="G101" t="n">
+        <v>234.021840232352</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1564.15362581105</v>
+      </c>
+      <c r="I101" t="n">
+        <v>241.130177947318</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D102" t="n">
+        <v>94.082474187</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4.73917306330967</v>
+      </c>
+      <c r="F102" t="n">
+        <v>35.5721701211976</v>
+      </c>
+      <c r="G102" t="n">
+        <v>21.8377155081046</v>
+      </c>
+      <c r="H102" t="n">
+        <v>129.654644308198</v>
+      </c>
+      <c r="I102" t="n">
+        <v>22.3460417062377</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>195.390476148</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.20218885034265</v>
+      </c>
+      <c r="F103" t="n">
+        <v>46.8874916203358</v>
+      </c>
+      <c r="G103" t="n">
+        <v>28.7613980693946</v>
+      </c>
+      <c r="H103" t="n">
+        <v>242.277967768336</v>
+      </c>
+      <c r="I103" t="n">
+        <v>29.6494442299038</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D104" t="n">
+        <v>280.823529448</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8.69265819597205</v>
+      </c>
+      <c r="F104" t="n">
+        <v>82.7847968223819</v>
+      </c>
+      <c r="G104" t="n">
+        <v>50.777965565591</v>
+      </c>
+      <c r="H104" t="n">
+        <v>363.608326270382</v>
+      </c>
+      <c r="I104" t="n">
+        <v>51.5166389964674</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1101.049180176</v>
+      </c>
+      <c r="E105" t="n">
+        <v>32.3279090421883</v>
+      </c>
+      <c r="F105" t="n">
+        <v>279.627719884026</v>
+      </c>
+      <c r="G105" t="n">
+        <v>171.73930383137</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1380.67690006003</v>
+      </c>
+      <c r="I105" t="n">
+        <v>174.755492570401</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D106" t="n">
+        <v>711.403508402</v>
+      </c>
+      <c r="E106" t="n">
+        <v>35.5701770918982</v>
+      </c>
+      <c r="F106" t="n">
+        <v>154.427929759837</v>
+      </c>
+      <c r="G106" t="n">
+        <v>95.0883604193731</v>
+      </c>
+      <c r="H106" t="n">
+        <v>865.831438161837</v>
+      </c>
+      <c r="I106" t="n">
+        <v>101.523562711292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D107" t="n">
+        <v>822.630434616</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34.9817999364241</v>
+      </c>
+      <c r="F107" t="n">
+        <v>233.9141386746</v>
+      </c>
+      <c r="G107" t="n">
+        <v>143.525011324477</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1056.5445732906</v>
+      </c>
+      <c r="I107" t="n">
+        <v>147.726623201382</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D108" t="n">
+        <v>555.358974616</v>
+      </c>
+      <c r="E108" t="n">
+        <v>23.9910542137689</v>
+      </c>
+      <c r="F108" t="n">
+        <v>182.146457993463</v>
+      </c>
+      <c r="G108" t="n">
+        <v>111.853795572652</v>
+      </c>
+      <c r="H108" t="n">
+        <v>737.505432609463</v>
+      </c>
+      <c r="I108" t="n">
+        <v>114.39773715549</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1056.831932497</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26.118513064319</v>
+      </c>
+      <c r="F109" t="n">
+        <v>300.08921404355</v>
+      </c>
+      <c r="G109" t="n">
+        <v>183.890338323103</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1356.92114654055</v>
+      </c>
+      <c r="I109" t="n">
+        <v>185.735923432373</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D110" t="n">
+        <v>504.053571678</v>
+      </c>
+      <c r="E110" t="n">
+        <v>18.8137295154363</v>
+      </c>
+      <c r="F110" t="n">
+        <v>169.645417292965</v>
+      </c>
+      <c r="G110" t="n">
+        <v>104.184841423543</v>
+      </c>
+      <c r="H110" t="n">
+        <v>673.698988970966</v>
+      </c>
+      <c r="I110" t="n">
+        <v>105.869908853879</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D111" t="n">
+        <v>811.29113982</v>
+      </c>
+      <c r="E111" t="n">
+        <v>71.8773432961458</v>
+      </c>
+      <c r="F111" t="n">
+        <v>424.219336410661</v>
+      </c>
+      <c r="G111" t="n">
+        <v>260.029985369077</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1235.51047623066</v>
+      </c>
+      <c r="I111" t="n">
+        <v>269.781292476618</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D112" t="n">
+        <v>744.0944886</v>
+      </c>
+      <c r="E112" t="n">
+        <v>30.3430698842421</v>
+      </c>
+      <c r="F112" t="n">
+        <v>239.168043675549</v>
+      </c>
+      <c r="G112" t="n">
+        <v>147.819777220626</v>
+      </c>
+      <c r="H112" t="n">
+        <v>983.262532275549</v>
+      </c>
+      <c r="I112" t="n">
+        <v>150.901916580127</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1116.680555387</v>
+      </c>
+      <c r="E113" t="n">
+        <v>79.3484828008261</v>
+      </c>
+      <c r="F113" t="n">
+        <v>298.017307179693</v>
+      </c>
+      <c r="G113" t="n">
+        <v>186.1051263341</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1414.69786256669</v>
+      </c>
+      <c r="I113" t="n">
+        <v>202.314853064782</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D114" t="n">
+        <v>424.535353255</v>
+      </c>
+      <c r="E114" t="n">
+        <v>39.9523048732235</v>
+      </c>
+      <c r="F114" t="n">
+        <v>273.150862269316</v>
+      </c>
+      <c r="G114" t="n">
+        <v>170.445252150609</v>
+      </c>
+      <c r="H114" t="n">
+        <v>697.686215524316</v>
+      </c>
+      <c r="I114" t="n">
+        <v>175.065046897911</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D115" t="n">
+        <v>963.210145397</v>
+      </c>
+      <c r="E115" t="n">
+        <v>32.8824386798485</v>
+      </c>
+      <c r="F115" t="n">
+        <v>230.698511909992</v>
+      </c>
+      <c r="G115" t="n">
+        <v>164.327498148398</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1193.90865730699</v>
+      </c>
+      <c r="I115" t="n">
+        <v>167.585146779916</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D116" t="n">
+        <v>998.43356611</v>
+      </c>
+      <c r="E116" t="n">
+        <v>47.6976610697422</v>
+      </c>
+      <c r="F116" t="n">
+        <v>838.013712432029</v>
+      </c>
+      <c r="G116" t="n">
+        <v>480.839843731715</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1836.44727854203</v>
+      </c>
+      <c r="I116" t="n">
+        <v>483.199774618598</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D117" t="n">
+        <v>877.752212634</v>
+      </c>
+      <c r="E117" t="n">
+        <v>38.1610456870878</v>
+      </c>
+      <c r="F117" t="n">
+        <v>268.79497578</v>
+      </c>
+      <c r="G117" t="n">
+        <v>177.117477847311</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1146.547188414</v>
+      </c>
+      <c r="I117" t="n">
+        <v>181.181859927877</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1431.840909205</v>
+      </c>
+      <c r="E118" t="n">
+        <v>38.9427070270288</v>
+      </c>
+      <c r="F118" t="n">
+        <v>627.566274805874</v>
+      </c>
+      <c r="G118" t="n">
+        <v>386.366667912559</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2059.40718401087</v>
+      </c>
+      <c r="I118" t="n">
+        <v>388.324267210339</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1163.184465664</v>
+      </c>
+      <c r="E119" t="n">
+        <v>75.5723878497431</v>
+      </c>
+      <c r="F119" t="n">
+        <v>676.382087508777</v>
+      </c>
+      <c r="G119" t="n">
+        <v>599.37271147306</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1839.56655317278</v>
+      </c>
+      <c r="I119" t="n">
+        <v>604.11822772027</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1441.43302296</v>
+      </c>
+      <c r="E120" t="n">
+        <v>73.5998611905213</v>
+      </c>
+      <c r="F120" t="n">
+        <v>246.246566804751</v>
+      </c>
+      <c r="G120" t="n">
+        <v>133.082799995529</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1687.67958976475</v>
+      </c>
+      <c r="I120" t="n">
+        <v>152.078832261147</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1434.514643562</v>
+      </c>
+      <c r="E121" t="n">
+        <v>72.2677762810438</v>
+      </c>
+      <c r="F121" t="n">
+        <v>710.613933054078</v>
+      </c>
+      <c r="G121" t="n">
+        <v>417.074038939752</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2145.12857661608</v>
+      </c>
+      <c r="I121" t="n">
+        <v>423.28877311609</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1985.759034461</v>
+      </c>
+      <c r="E122" t="n">
+        <v>196.671552133086</v>
+      </c>
+      <c r="F122" t="n">
+        <v>522.605832469841</v>
+      </c>
+      <c r="G122" t="n">
+        <v>319.943799815508</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2508.36486693084</v>
+      </c>
+      <c r="I122" t="n">
+        <v>375.557897612103</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4473.585252832</v>
+      </c>
+      <c r="E123" t="n">
+        <v>155.693604409173</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3581.44220532319</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1529.19122946116</v>
+      </c>
+      <c r="H123" t="n">
+        <v>8055.02745815519</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1537.09671612259</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2568.648647808</v>
+      </c>
+      <c r="E124" t="n">
+        <v>176.700889818337</v>
+      </c>
+      <c r="F124" t="n">
+        <v>551.260011480301</v>
+      </c>
+      <c r="G124" t="n">
+        <v>278.270986681474</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3119.9086592883</v>
+      </c>
+      <c r="I124" t="n">
+        <v>329.633048238906</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1292.4375</v>
+      </c>
+      <c r="E125" t="n">
+        <v>276.031559895752</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1110.14926977807</v>
+      </c>
+      <c r="G125" t="n">
+        <v>458.901123232827</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2402.58676977807</v>
+      </c>
+      <c r="I125" t="n">
+        <v>535.521860396784</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8806.10236220472</v>
+      </c>
+      <c r="E126" t="n">
+        <v>253.41957584045</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1523.06553510482</v>
+      </c>
+      <c r="G126" t="n">
+        <v>977.270188682268</v>
+      </c>
+      <c r="H126" t="n">
+        <v>10329.1678973095</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1009.59323646022</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4135,12 +4904,24 @@
       <c r="C25" t="n">
         <v>2022</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="D25" t="n">
+        <v>488.976377952756</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.0716268333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>224.798295454545</v>
+      </c>
+      <c r="G25" t="n">
+        <v>306.672968032362</v>
+      </c>
+      <c r="H25" t="n">
+        <v>713.774673407301</v>
+      </c>
+      <c r="I25" t="n">
+        <v>306.995635153847</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4820,15 +5601,23 @@
         <v>2022</v>
       </c>
       <c r="D49" t="n">
-        <v>271</v>
+        <v>319.442307692308</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
+        <v>17.7172056612536</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12.1690789473684</v>
+      </c>
+      <c r="G49" t="n">
+        <v>46.0344279733133</v>
+      </c>
+      <c r="H49" t="n">
+        <v>331.611386639676</v>
+      </c>
+      <c r="I49" t="n">
+        <v>49.3261384589684</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -4841,22 +5630,22 @@
         <v>1999</v>
       </c>
       <c r="D50" t="n">
-        <v>120.615384576</v>
+        <v>1424.685713976</v>
       </c>
       <c r="E50" t="n">
-        <v>6.68453085145098</v>
+        <v>52.514614666624</v>
       </c>
       <c r="F50" t="n">
-        <v>34.4277467491558</v>
+        <v>2220.89731091458</v>
       </c>
       <c r="G50" t="n">
-        <v>49.5284373541201</v>
+        <v>1302.37921040945</v>
       </c>
       <c r="H50" t="n">
-        <v>155.043131325156</v>
+        <v>3645.58302489058</v>
       </c>
       <c r="I50" t="n">
-        <v>49.9774855254343</v>
+        <v>1303.43752917442</v>
       </c>
     </row>
     <row r="51">
@@ -4870,22 +5659,22 @@
         <v>2000</v>
       </c>
       <c r="D51" t="n">
-        <v>71.615384592</v>
+        <v>1711.382353162</v>
       </c>
       <c r="E51" t="n">
-        <v>3.96894019304902</v>
+        <v>52.9744137462322</v>
       </c>
       <c r="F51" t="n">
-        <v>28.3309497496997</v>
+        <v>2736.43759113977</v>
       </c>
       <c r="G51" t="n">
-        <v>40.7563883130887</v>
+        <v>1604.59082695643</v>
       </c>
       <c r="H51" t="n">
-        <v>99.9463343416997</v>
+        <v>4447.81994430177</v>
       </c>
       <c r="I51" t="n">
-        <v>40.9491840527168</v>
+        <v>1605.4650449214</v>
       </c>
     </row>
     <row r="52">
@@ -4899,22 +5688,22 @@
         <v>2001</v>
       </c>
       <c r="D52" t="n">
-        <v>17.903846148</v>
+        <v>1699.114753864</v>
       </c>
       <c r="E52" t="n">
-        <v>0.992235048262255</v>
+        <v>49.8877145581956</v>
       </c>
       <c r="F52" t="n">
-        <v>13.3047793930775</v>
+        <v>2782.9850836619</v>
       </c>
       <c r="G52" t="n">
-        <v>19.1501160285787</v>
+        <v>1634.15407648059</v>
       </c>
       <c r="H52" t="n">
-        <v>31.2086255410775</v>
+        <v>4482.0998375259</v>
       </c>
       <c r="I52" t="n">
-        <v>19.1758043977046</v>
+        <v>1634.9153891691</v>
       </c>
     </row>
     <row r="53">
@@ -4928,22 +5717,22 @@
         <v>2002</v>
       </c>
       <c r="D53" t="n">
-        <v>58.423076904</v>
+        <v>1563.157893924</v>
       </c>
       <c r="E53" t="n">
-        <v>3.23781963117157</v>
+        <v>78.157898369621</v>
       </c>
       <c r="F53" t="n">
-        <v>14.2302111474368</v>
+        <v>2088.40513379975</v>
       </c>
       <c r="G53" t="n">
-        <v>20.5034695763865</v>
+        <v>1229.65872739513</v>
       </c>
       <c r="H53" t="n">
-        <v>72.6532880514368</v>
+        <v>3651.56302772375</v>
       </c>
       <c r="I53" t="n">
-        <v>20.7575465947642</v>
+        <v>1232.14010686146</v>
       </c>
     </row>
     <row r="54">
@@ -4957,22 +5746,22 @@
         <v>2003</v>
       </c>
       <c r="D54" t="n">
-        <v>129.096153804</v>
+        <v>2598.413042952</v>
       </c>
       <c r="E54" t="n">
-        <v>7.15453692694363</v>
+        <v>110.495748024655</v>
       </c>
       <c r="F54" t="n">
-        <v>37.8622044918285</v>
+        <v>4102.60047240698</v>
       </c>
       <c r="G54" t="n">
-        <v>54.4753250413699</v>
+        <v>2406.5473256622</v>
       </c>
       <c r="H54" t="n">
-        <v>166.958358295828</v>
+        <v>6701.01351535898</v>
       </c>
       <c r="I54" t="n">
-        <v>54.9431382158127</v>
+        <v>2409.08267624493</v>
       </c>
     </row>
     <row r="55">
@@ -4986,22 +5775,22 @@
         <v>2004</v>
       </c>
       <c r="D55" t="n">
-        <v>23.5576923</v>
+        <v>1239.474359548</v>
       </c>
       <c r="E55" t="n">
-        <v>1.30557243192402</v>
+        <v>53.544280214529</v>
       </c>
       <c r="F55" t="n">
-        <v>7.64690221966244</v>
+        <v>2456.50033651541</v>
       </c>
       <c r="G55" t="n">
-        <v>11.0058886692478</v>
+        <v>1442.23293699433</v>
       </c>
       <c r="H55" t="n">
-        <v>31.2045945196624</v>
+        <v>3695.97469606341</v>
       </c>
       <c r="I55" t="n">
-        <v>11.0830548485008</v>
+        <v>1443.22653609715</v>
       </c>
     </row>
     <row r="56">
@@ -5015,22 +5804,22 @@
         <v>2005</v>
       </c>
       <c r="D56" t="n">
-        <v>101.769230736</v>
+        <v>3620.092436029</v>
       </c>
       <c r="E56" t="n">
-        <v>5.64007290591177</v>
+        <v>89.4668571956062</v>
       </c>
       <c r="F56" t="n">
-        <v>34.7225155044737</v>
+        <v>6016.35491842884</v>
       </c>
       <c r="G56" t="n">
-        <v>49.9317840456324</v>
+        <v>3524.2565000869</v>
       </c>
       <c r="H56" t="n">
-        <v>136.491746240474</v>
+        <v>9636.44735445784</v>
       </c>
       <c r="I56" t="n">
-        <v>50.2493132327564</v>
+        <v>3525.39192104101</v>
       </c>
     </row>
     <row r="57">
@@ -5044,22 +5833,22 @@
         <v>2006</v>
       </c>
       <c r="D57" t="n">
-        <v>72.557692284</v>
+        <v>1390.044643545</v>
       </c>
       <c r="E57" t="n">
-        <v>4.02116309032598</v>
+        <v>51.8832231482394</v>
       </c>
       <c r="F57" t="n">
-        <v>24.0846926702055</v>
+        <v>2387.07931351173</v>
       </c>
       <c r="G57" t="n">
-        <v>34.6652108703229</v>
+        <v>1401.58696671464</v>
       </c>
       <c r="H57" t="n">
-        <v>96.6423849542055</v>
+        <v>3777.12395705673</v>
       </c>
       <c r="I57" t="n">
-        <v>34.8976589083416</v>
+        <v>1402.54693116081</v>
       </c>
     </row>
     <row r="58">
@@ -5073,22 +5862,22 @@
         <v>2007</v>
       </c>
       <c r="D58" t="n">
-        <v>428.74999986</v>
+        <v>962.63291208</v>
       </c>
       <c r="E58" t="n">
-        <v>23.7614182610172</v>
+        <v>85.2856550425217</v>
       </c>
       <c r="F58" t="n">
-        <v>159.874565472918</v>
+        <v>2777.01503292603</v>
       </c>
       <c r="G58" t="n">
-        <v>229.930027027249</v>
+        <v>1627.2162368925</v>
       </c>
       <c r="H58" t="n">
-        <v>588.624565332918</v>
+        <v>3739.64794500603</v>
       </c>
       <c r="I58" t="n">
-        <v>231.154542085001</v>
+        <v>1629.44969991793</v>
       </c>
     </row>
     <row r="59">
@@ -5102,22 +5891,22 @@
         <v>2008</v>
       </c>
       <c r="D59" t="n">
-        <v>758.55769206</v>
+        <v>1197.165354992</v>
       </c>
       <c r="E59" t="n">
-        <v>42.0394323079534</v>
+        <v>48.8186279915362</v>
       </c>
       <c r="F59" t="n">
-        <v>214.99099341838</v>
+        <v>1946.89674149287</v>
       </c>
       <c r="G59" t="n">
-        <v>310.242182494262</v>
+        <v>1150.93474259966</v>
       </c>
       <c r="H59" t="n">
-        <v>973.54868547838</v>
+        <v>3144.06209648487</v>
       </c>
       <c r="I59" t="n">
-        <v>313.077507444367</v>
+        <v>1151.96963508676</v>
       </c>
     </row>
     <row r="60">
@@ -5131,22 +5920,22 @@
         <v>2009</v>
       </c>
       <c r="D60" t="n">
-        <v>335</v>
+        <v>940.749999858</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>66.8473045612761</v>
       </c>
       <c r="F60" t="n">
-        <v>71.2521137837344</v>
+        <v>1320.5259950568</v>
       </c>
       <c r="G60" t="n">
-        <v>103.258444748684</v>
+        <v>789.298095735594</v>
       </c>
       <c r="H60" t="n">
-        <v>406.252113783734</v>
+        <v>2261.2759949148</v>
       </c>
       <c r="I60" t="n">
-        <v>103.258444748684</v>
+        <v>792.123756782324</v>
       </c>
     </row>
     <row r="61">
@@ -5160,22 +5949,22 @@
         <v>2010</v>
       </c>
       <c r="D61" t="n">
-        <v>103.65384612</v>
+        <v>464.151514845</v>
       </c>
       <c r="E61" t="n">
-        <v>5.74451870046569</v>
+        <v>43.6805149118345</v>
       </c>
       <c r="F61" t="n">
-        <v>53.8987526700793</v>
+        <v>1308.6698311254</v>
       </c>
       <c r="G61" t="n">
-        <v>78.0850807042937</v>
+        <v>781.569532652457</v>
       </c>
       <c r="H61" t="n">
-        <v>157.552598790079</v>
+        <v>1772.8213459704</v>
       </c>
       <c r="I61" t="n">
-        <v>78.2961003096327</v>
+        <v>782.789193687256</v>
       </c>
     </row>
     <row r="62">
@@ -5189,22 +5978,22 @@
         <v>2011</v>
       </c>
       <c r="D62" t="n">
-        <v>207.30769224</v>
+        <v>983.905797581</v>
       </c>
       <c r="E62" t="n">
-        <v>11.4890374009314</v>
+        <v>33.5889548197916</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1879.58690892494</v>
       </c>
       <c r="G62" t="n">
-        <v>45.3583492445849</v>
+        <v>1157.49497484464</v>
       </c>
       <c r="H62" t="n">
-        <v>207.30769224</v>
+        <v>2863.49270650594</v>
       </c>
       <c r="I62" t="n">
-        <v>46.7907878389939</v>
+        <v>1157.98222554427</v>
       </c>
     </row>
     <row r="63">
@@ -5218,22 +6007,22 @@
         <v>2012</v>
       </c>
       <c r="D63" t="n">
-        <v>111.192307656</v>
+        <v>635.160838955</v>
       </c>
       <c r="E63" t="n">
-        <v>6.16230187868138</v>
+        <v>30.3432170647906</v>
       </c>
       <c r="F63" t="n">
-        <v>69.6009227018824</v>
+        <v>3163.8330412119</v>
       </c>
       <c r="G63" t="n">
-        <v>65.0275612571281</v>
+        <v>3730.67155599159</v>
       </c>
       <c r="H63" t="n">
-        <v>180.793230357882</v>
+        <v>3798.9938801669</v>
       </c>
       <c r="I63" t="n">
-        <v>65.3188922708702</v>
+        <v>3730.79495141539</v>
       </c>
     </row>
     <row r="64">
@@ -5247,22 +6036,22 @@
         <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v>179.980769172</v>
+        <v>328.752212481</v>
       </c>
       <c r="E64" t="n">
-        <v>9.97457337989951</v>
+        <v>14.2927901743152</v>
       </c>
       <c r="F64" t="n">
-        <v>25.9011060686015</v>
+        <v>680.071217407455</v>
       </c>
       <c r="G64" t="n">
-        <v>51.3662362504586</v>
+        <v>455.464807803071</v>
       </c>
       <c r="H64" t="n">
-        <v>205.881875240601</v>
+        <v>1008.82342988846</v>
       </c>
       <c r="I64" t="n">
-        <v>52.3257330636555</v>
+        <v>455.689011276392</v>
       </c>
     </row>
     <row r="65">
@@ -5276,22 +6065,22 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>175.269230712</v>
+        <v>732.626623435</v>
       </c>
       <c r="E65" t="n">
-        <v>9.71345889351471</v>
+        <v>19.9257220360267</v>
       </c>
       <c r="F65" t="n">
-        <v>345.161073924121</v>
+        <v>979.433383889692</v>
       </c>
       <c r="G65" t="n">
-        <v>483.279682397073</v>
+        <v>953.620496621205</v>
       </c>
       <c r="H65" t="n">
-        <v>520.430304636121</v>
+        <v>1712.06000732469</v>
       </c>
       <c r="I65" t="n">
-        <v>483.377288152321</v>
+        <v>953.828646023346</v>
       </c>
     </row>
     <row r="66">
@@ -5305,22 +6094,22 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>27.326923068</v>
+        <v>575.300970698</v>
       </c>
       <c r="E66" t="n">
-        <v>1.51446402103186</v>
+        <v>37.377449038665</v>
       </c>
       <c r="F66" t="n">
-        <v>3.58183374924048</v>
+        <v>1340.33805557278</v>
       </c>
       <c r="G66" t="n">
-        <v>18.0708045217754</v>
+        <v>1359.85419973504</v>
       </c>
       <c r="H66" t="n">
-        <v>30.9087568172405</v>
+        <v>1915.63902627078</v>
       </c>
       <c r="I66" t="n">
-        <v>18.1341549936912</v>
+        <v>1360.36778785506</v>
       </c>
     </row>
     <row r="67">
@@ -5334,22 +6123,22 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>414.865384686</v>
+        <v>507.55451754</v>
       </c>
       <c r="E67" t="n">
-        <v>18.9477735157459</v>
+        <v>25.9158361453764</v>
       </c>
       <c r="F67" t="n">
-        <v>287.920228930308</v>
+        <v>1162.26188867311</v>
       </c>
       <c r="G67" t="n">
-        <v>488.004403557243</v>
+        <v>1230.84177665858</v>
       </c>
       <c r="H67" t="n">
-        <v>702.785613616308</v>
+        <v>1669.81640621311</v>
       </c>
       <c r="I67" t="n">
-        <v>488.372108143436</v>
+        <v>1231.11458026098</v>
       </c>
     </row>
     <row r="68">
@@ -5363,22 +6152,22 @@
         <v>2017</v>
       </c>
       <c r="D68" t="n">
-        <v>187.384615369</v>
+        <v>281.790794824</v>
       </c>
       <c r="E68" t="n">
-        <v>5.02243497518883</v>
+        <v>14.1960168965805</v>
       </c>
       <c r="F68" t="n">
-        <v>158.457340367262</v>
+        <v>439.600194281724</v>
       </c>
       <c r="G68" t="n">
-        <v>351.336183616394</v>
+        <v>467.633055470574</v>
       </c>
       <c r="H68" t="n">
-        <v>345.841955736262</v>
+        <v>721.390989105724</v>
       </c>
       <c r="I68" t="n">
-        <v>351.372080238616</v>
+        <v>467.848481310427</v>
       </c>
     </row>
     <row r="69">
@@ -5392,22 +6181,22 @@
         <v>2018</v>
       </c>
       <c r="D69" t="n">
-        <v>148.884615336</v>
+        <v>328.828828938</v>
       </c>
       <c r="E69" t="n">
-        <v>8.25121776975981</v>
+        <v>10.3984834561584</v>
       </c>
       <c r="F69" t="n">
-        <v>29.3895458929897</v>
+        <v>495.849032688005</v>
       </c>
       <c r="G69" t="n">
-        <v>40.6313515935605</v>
+        <v>450.300859754445</v>
       </c>
       <c r="H69" t="n">
-        <v>178.27416122899</v>
+        <v>824.677861626005</v>
       </c>
       <c r="I69" t="n">
-        <v>41.4606961712358</v>
+        <v>450.420906213044</v>
       </c>
     </row>
     <row r="70">
@@ -5421,22 +6210,22 @@
         <v>2019</v>
       </c>
       <c r="D70" t="n">
-        <v>21.673076916</v>
+        <v>1162.783409976</v>
       </c>
       <c r="E70" t="n">
-        <v>1.2011266373701</v>
+        <v>40.4681994451199</v>
       </c>
       <c r="F70" t="n">
-        <v>15.8188621076233</v>
+        <v>2887.83991711106</v>
       </c>
       <c r="G70" t="n">
-        <v>53.6354317589852</v>
+        <v>1976.34507384099</v>
       </c>
       <c r="H70" t="n">
-        <v>37.4919390236233</v>
+        <v>4050.62332708706</v>
       </c>
       <c r="I70" t="n">
-        <v>53.648879253641</v>
+        <v>1976.75934955722</v>
       </c>
     </row>
     <row r="71">
@@ -5450,22 +6239,22 @@
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>40.519230756</v>
+        <v>162.027026974</v>
       </c>
       <c r="E71" t="n">
-        <v>2.24558458290931</v>
+        <v>11.1460630730317</v>
       </c>
       <c r="F71" t="n">
-        <v>5.54911180602508</v>
+        <v>500.625500756708</v>
       </c>
       <c r="G71" t="n">
-        <v>12.9408946269088</v>
+        <v>357.209739995255</v>
       </c>
       <c r="H71" t="n">
-        <v>46.0683425620251</v>
+        <v>662.652527730708</v>
       </c>
       <c r="I71" t="n">
-        <v>13.1342835306597</v>
+        <v>357.383593732988</v>
       </c>
     </row>
     <row r="72">
@@ -5479,22 +6268,22 @@
         <v>2021</v>
       </c>
       <c r="D72" t="n">
-        <v>90.461538432</v>
+        <v>812.59759769</v>
       </c>
       <c r="E72" t="n">
-        <v>5.01339813858824</v>
+        <v>15.0386930083701</v>
       </c>
       <c r="F72" t="n">
-        <v>11.3584630675827</v>
+        <v>958.326129439151</v>
       </c>
       <c r="G72" t="n">
-        <v>16.5119295063286</v>
+        <v>810.64785463083</v>
       </c>
       <c r="H72" t="n">
-        <v>101.820001499583</v>
+        <v>1770.92372712915</v>
       </c>
       <c r="I72" t="n">
-        <v>17.2562445774845</v>
+        <v>810.787337410351</v>
       </c>
     </row>
     <row r="73">
@@ -5502,28 +6291,28 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>1999</v>
+        <v>2022</v>
       </c>
       <c r="D73" t="n">
-        <v>123.036144474</v>
+        <v>508.897637795276</v>
       </c>
       <c r="E73" t="n">
-        <v>12.1856222644558</v>
+        <v>14.644915333916</v>
       </c>
       <c r="F73" t="n">
-        <v>84.7245330155006</v>
+        <v>521.594943936877</v>
       </c>
       <c r="G73" t="n">
-        <v>121.886388801155</v>
+        <v>428.626779537097</v>
       </c>
       <c r="H73" t="n">
-        <v>207.760677489501</v>
+        <v>1030.49258173215</v>
       </c>
       <c r="I73" t="n">
-        <v>122.494004608219</v>
+        <v>428.876893387229</v>
       </c>
     </row>
     <row r="74">
@@ -5534,25 +6323,25 @@
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D74" t="n">
-        <v>249.71428566</v>
+        <v>120.615384576</v>
       </c>
       <c r="E74" t="n">
-        <v>9.20459113160384</v>
+        <v>6.68453085145098</v>
       </c>
       <c r="F74" t="n">
-        <v>122.299941493753</v>
+        <v>34.4277467491558</v>
       </c>
       <c r="G74" t="n">
-        <v>175.938468361452</v>
+        <v>49.5284373541201</v>
       </c>
       <c r="H74" t="n">
-        <v>372.014227153753</v>
+        <v>155.043131325156</v>
       </c>
       <c r="I74" t="n">
-        <v>176.179082604246</v>
+        <v>49.9774855254343</v>
       </c>
     </row>
     <row r="75">
@@ -5563,25 +6352,25 @@
         <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D75" t="n">
-        <v>256.72131144</v>
+        <v>71.615384592</v>
       </c>
       <c r="E75" t="n">
-        <v>7.53759537253095</v>
+        <v>3.96894019304902</v>
       </c>
       <c r="F75" t="n">
-        <v>133.66662087929</v>
+        <v>28.3309497496997</v>
       </c>
       <c r="G75" t="n">
-        <v>192.391863356884</v>
+        <v>40.7563883130887</v>
       </c>
       <c r="H75" t="n">
-        <v>390.38793231929</v>
+        <v>99.9463343416997</v>
       </c>
       <c r="I75" t="n">
-        <v>192.539462006971</v>
+        <v>40.9491840527168</v>
       </c>
     </row>
     <row r="76">
@@ -5592,25 +6381,25 @@
         <v>13</v>
       </c>
       <c r="C76" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D76" t="n">
-        <v>263.1578946</v>
+        <v>17.903846148</v>
       </c>
       <c r="E76" t="n">
-        <v>13.157895348421</v>
+        <v>0.992235048262255</v>
       </c>
       <c r="F76" t="n">
-        <v>94.332528735428</v>
+        <v>13.3047793930775</v>
       </c>
       <c r="G76" t="n">
-        <v>135.91816122411</v>
+        <v>19.1501160285787</v>
       </c>
       <c r="H76" t="n">
-        <v>357.490423335428</v>
+        <v>31.2086255410775</v>
       </c>
       <c r="I76" t="n">
-        <v>136.553567366595</v>
+        <v>19.1758043977046</v>
       </c>
     </row>
     <row r="77">
@@ -5621,25 +6410,25 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D77" t="n">
-        <v>510.92391294</v>
+        <v>58.423076904</v>
       </c>
       <c r="E77" t="n">
-        <v>21.7266920273198</v>
+        <v>3.23781963117157</v>
       </c>
       <c r="F77" t="n">
-        <v>179.361830037932</v>
+        <v>14.2302111474368</v>
       </c>
       <c r="G77" t="n">
-        <v>258.061941254373</v>
+        <v>20.5034695763865</v>
       </c>
       <c r="H77" t="n">
-        <v>690.285742977932</v>
+        <v>72.6532880514368</v>
       </c>
       <c r="I77" t="n">
-        <v>258.974930582914</v>
+        <v>20.7575465947642</v>
       </c>
     </row>
     <row r="78">
@@ -5650,25 +6439,25 @@
         <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D78" t="n">
-        <v>200.115384708</v>
+        <v>129.096153804</v>
       </c>
       <c r="E78" t="n">
-        <v>8.64482121110668</v>
+        <v>7.15453692694363</v>
       </c>
       <c r="F78" t="n">
-        <v>93.5274963789484</v>
+        <v>37.8622044918285</v>
       </c>
       <c r="G78" t="n">
-        <v>134.610484493107</v>
+        <v>54.4753250413699</v>
       </c>
       <c r="H78" t="n">
-        <v>293.642881086948</v>
+        <v>166.958358295828</v>
       </c>
       <c r="I78" t="n">
-        <v>134.887788436319</v>
+        <v>54.9431382158127</v>
       </c>
     </row>
     <row r="79">
@@ -5679,25 +6468,25 @@
         <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D79" t="n">
-        <v>360.983193183</v>
+        <v>23.5576923</v>
       </c>
       <c r="E79" t="n">
-        <v>8.92132793988653</v>
+        <v>1.30557243192402</v>
       </c>
       <c r="F79" t="n">
-        <v>130.519455601638</v>
+        <v>7.64690221966244</v>
       </c>
       <c r="G79" t="n">
-        <v>187.690009671529</v>
+        <v>11.0058886692478</v>
       </c>
       <c r="H79" t="n">
-        <v>491.502648784638</v>
+        <v>31.2045945196624</v>
       </c>
       <c r="I79" t="n">
-        <v>187.901915431189</v>
+        <v>11.0830548485008</v>
       </c>
     </row>
     <row r="80">
@@ -5708,25 +6497,25 @@
         <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D80" t="n">
-        <v>446.026785935</v>
+        <v>101.769230736</v>
       </c>
       <c r="E80" t="n">
-        <v>16.64788780146</v>
+        <v>5.64007290591177</v>
       </c>
       <c r="F80" t="n">
-        <v>164.67908613253</v>
+        <v>34.7225155044737</v>
       </c>
       <c r="G80" t="n">
-        <v>237.023379325833</v>
+        <v>49.9317840456324</v>
       </c>
       <c r="H80" t="n">
-        <v>610.70587206753</v>
+        <v>136.491746240474</v>
       </c>
       <c r="I80" t="n">
-        <v>237.607311577922</v>
+        <v>50.2493132327564</v>
       </c>
     </row>
     <row r="81">
@@ -5737,25 +6526,25 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D81" t="n">
-        <v>216.468354585</v>
+        <v>72.557692284</v>
       </c>
       <c r="E81" t="n">
-        <v>19.1782819651031</v>
+        <v>4.02116309032598</v>
       </c>
       <c r="F81" t="n">
-        <v>133.566092673577</v>
+        <v>24.0846926702055</v>
       </c>
       <c r="G81" t="n">
-        <v>192.093440301246</v>
+        <v>34.6652108703229</v>
       </c>
       <c r="H81" t="n">
-        <v>350.034447258577</v>
+        <v>96.6423849542055</v>
       </c>
       <c r="I81" t="n">
-        <v>193.04842994933</v>
+        <v>34.8976589083416</v>
       </c>
     </row>
     <row r="82">
@@ -5766,25 +6555,25 @@
         <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D82" t="n">
-        <v>405.11811046</v>
+        <v>428.74999986</v>
       </c>
       <c r="E82" t="n">
-        <v>16.5201158258651</v>
+        <v>23.7614182610172</v>
       </c>
       <c r="F82" t="n">
-        <v>150.389076904584</v>
+        <v>159.874565472918</v>
       </c>
       <c r="G82" t="n">
-        <v>217.018558314112</v>
+        <v>229.930027027249</v>
       </c>
       <c r="H82" t="n">
-        <v>555.507187364584</v>
+        <v>588.624565332918</v>
       </c>
       <c r="I82" t="n">
-        <v>217.646430891103</v>
+        <v>231.154542085001</v>
       </c>
     </row>
     <row r="83">
@@ -5795,25 +6584,25 @@
         <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D83" t="n">
-        <v>462.277777708</v>
+        <v>758.55769206</v>
       </c>
       <c r="E83" t="n">
-        <v>32.8482842445081</v>
+        <v>42.0394323079534</v>
       </c>
       <c r="F83" t="n">
-        <v>146.509523904424</v>
+        <v>214.99099341838</v>
       </c>
       <c r="G83" t="n">
-        <v>212.321358285016</v>
+        <v>310.242182494262</v>
       </c>
       <c r="H83" t="n">
-        <v>608.787301612424</v>
+        <v>973.54868547838</v>
       </c>
       <c r="I83" t="n">
-        <v>214.847315463336</v>
+        <v>313.077507444367</v>
       </c>
     </row>
     <row r="84">
@@ -5824,25 +6613,25 @@
         <v>13</v>
       </c>
       <c r="C84" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D84" t="n">
-        <v>239.303030145</v>
+        <v>335</v>
       </c>
       <c r="E84" t="n">
-        <v>22.5204038818801</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>148.715406581842</v>
+        <v>71.2521137837344</v>
       </c>
       <c r="G84" t="n">
-        <v>215.44941115792</v>
+        <v>103.258444748684</v>
       </c>
       <c r="H84" t="n">
-        <v>388.018436726842</v>
+        <v>406.252113783734</v>
       </c>
       <c r="I84" t="n">
-        <v>216.623215190103</v>
+        <v>103.258444748684</v>
       </c>
     </row>
     <row r="85">
@@ -5853,25 +6642,25 @@
         <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D85" t="n">
-        <v>276.804347961</v>
+        <v>103.65384612</v>
       </c>
       <c r="E85" t="n">
-        <v>9.44965337173803</v>
+        <v>5.74451870046569</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>53.8987526700793</v>
       </c>
       <c r="G85" t="n">
-        <v>78.3462396042831</v>
+        <v>78.0850807042937</v>
       </c>
       <c r="H85" t="n">
-        <v>276.804347961</v>
+        <v>157.552598790079</v>
       </c>
       <c r="I85" t="n">
-        <v>78.9140621751139</v>
+        <v>78.2961003096327</v>
       </c>
     </row>
     <row r="86">
@@ -5882,25 +6671,25 @@
         <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D86" t="n">
-        <v>393.482517355</v>
+        <v>207.30769224</v>
       </c>
       <c r="E86" t="n">
-        <v>18.7976410116004</v>
+        <v>11.4890374009314</v>
       </c>
       <c r="F86" t="n">
-        <v>327.228218673029</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>305.72659397008</v>
+        <v>45.3583492445849</v>
       </c>
       <c r="H86" t="n">
-        <v>720.710736028029</v>
+        <v>207.30769224</v>
       </c>
       <c r="I86" t="n">
-        <v>306.303936586109</v>
+        <v>46.7907878389939</v>
       </c>
     </row>
     <row r="87">
@@ -5911,25 +6700,25 @@
         <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D87" t="n">
-        <v>469.64601783</v>
+        <v>111.192307656</v>
       </c>
       <c r="E87" t="n">
-        <v>20.4182716775931</v>
+        <v>6.16230187868138</v>
       </c>
       <c r="F87" t="n">
-        <v>122.547024235025</v>
+        <v>69.6009227018824</v>
       </c>
       <c r="G87" t="n">
-        <v>243.031296886498</v>
+        <v>65.0275612571281</v>
       </c>
       <c r="H87" t="n">
-        <v>592.193042065025</v>
+        <v>180.793230357882</v>
       </c>
       <c r="I87" t="n">
-        <v>243.887509078742</v>
+        <v>65.3188922708702</v>
       </c>
     </row>
     <row r="88">
@@ -5940,25 +6729,25 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D88" t="n">
-        <v>730.996753305</v>
+        <v>179.980769172</v>
       </c>
       <c r="E88" t="n">
-        <v>19.881393399684</v>
+        <v>9.97457337989951</v>
       </c>
       <c r="F88" t="n">
-        <v>1636.96644342072</v>
+        <v>25.9011060686015</v>
       </c>
       <c r="G88" t="n">
-        <v>2292.00997052451</v>
+        <v>51.3662362504586</v>
       </c>
       <c r="H88" t="n">
-        <v>2367.96319672572</v>
+        <v>205.881875240601</v>
       </c>
       <c r="I88" t="n">
-        <v>2292.09619666961</v>
+        <v>52.3257330636555</v>
       </c>
     </row>
     <row r="89">
@@ -5969,25 +6758,25 @@
         <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>594.1747571</v>
+        <v>175.269230712</v>
       </c>
       <c r="E89" t="n">
-        <v>38.6036836972846</v>
+        <v>9.71345889351471</v>
       </c>
       <c r="F89" t="n">
-        <v>111.961190419807</v>
+        <v>345.161073924121</v>
       </c>
       <c r="G89" t="n">
-        <v>564.85837360001</v>
+        <v>483.279682397073</v>
       </c>
       <c r="H89" t="n">
-        <v>706.135947519807</v>
+        <v>520.430304636121</v>
       </c>
       <c r="I89" t="n">
-        <v>566.175967894301</v>
+        <v>483.377288152321</v>
       </c>
     </row>
     <row r="90">
@@ -5998,25 +6787,25 @@
         <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>925.15576398</v>
+        <v>27.326923068</v>
       </c>
       <c r="E90" t="n">
-        <v>47.2386401060191</v>
+        <v>1.51446402103186</v>
       </c>
       <c r="F90" t="n">
-        <v>1257.09930927835</v>
+        <v>3.58183374924048</v>
       </c>
       <c r="G90" t="n">
-        <v>1761.92743461475</v>
+        <v>18.0708045217754</v>
       </c>
       <c r="H90" t="n">
-        <v>2182.25507325835</v>
+        <v>30.9087568172405</v>
       </c>
       <c r="I90" t="n">
-        <v>1762.56057313421</v>
+        <v>18.1341549936912</v>
       </c>
     </row>
     <row r="91">
@@ -6027,25 +6816,25 @@
         <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>683.280334352</v>
+        <v>414.865384686</v>
       </c>
       <c r="E91" t="n">
-        <v>34.422200262505</v>
+        <v>18.9477735157459</v>
       </c>
       <c r="F91" t="n">
-        <v>919.825536766058</v>
+        <v>287.920228930308</v>
       </c>
       <c r="G91" t="n">
-        <v>2039.46370001712</v>
+        <v>488.004403557243</v>
       </c>
       <c r="H91" t="n">
-        <v>1603.10587111806</v>
+        <v>702.785613616308</v>
       </c>
       <c r="I91" t="n">
-        <v>2039.75416939356</v>
+        <v>488.372108143436</v>
       </c>
     </row>
     <row r="92">
@@ -6056,25 +6845,25 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="n">
-        <v>1382.882883342</v>
+        <v>187.384615369</v>
       </c>
       <c r="E92" t="n">
-        <v>43.7306085074059</v>
+        <v>5.02243497518883</v>
       </c>
       <c r="F92" t="n">
-        <v>366.634585015046</v>
+        <v>158.457340367262</v>
       </c>
       <c r="G92" t="n">
-        <v>506.876111129667</v>
+        <v>351.336183616394</v>
       </c>
       <c r="H92" t="n">
-        <v>1749.51746835705</v>
+        <v>345.841955736262</v>
       </c>
       <c r="I92" t="n">
-        <v>508.759037417874</v>
+        <v>351.372080238616</v>
       </c>
     </row>
     <row r="93">
@@ -6085,25 +6874,25 @@
         <v>13</v>
       </c>
       <c r="C93" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D93" t="n">
-        <v>868.718893888</v>
+        <v>148.884615336</v>
       </c>
       <c r="E93" t="n">
-        <v>30.2339104238932</v>
+        <v>8.25121776975981</v>
       </c>
       <c r="F93" t="n">
-        <v>2351.88952905812</v>
+        <v>29.3895458929897</v>
       </c>
       <c r="G93" t="n">
-        <v>3260.09441350093</v>
+        <v>40.6313515935605</v>
       </c>
       <c r="H93" t="n">
-        <v>3220.60842294612</v>
+        <v>178.27416122899</v>
       </c>
       <c r="I93" t="n">
-        <v>3260.23460417797</v>
+        <v>41.4606961712358</v>
       </c>
     </row>
     <row r="94">
@@ -6114,25 +6903,25 @@
         <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D94" t="n">
-        <v>1001.148648321</v>
+        <v>21.673076916</v>
       </c>
       <c r="E94" t="n">
-        <v>68.8703988962094</v>
+        <v>1.2011266373701</v>
       </c>
       <c r="F94" t="n">
-        <v>184.024033381204</v>
+        <v>15.8188621076233</v>
       </c>
       <c r="G94" t="n">
-        <v>429.156179952837</v>
+        <v>53.6354317589852</v>
       </c>
       <c r="H94" t="n">
-        <v>1185.1726817022</v>
+        <v>37.4919390236233</v>
       </c>
       <c r="I94" t="n">
-        <v>434.647165682505</v>
+        <v>53.648879253641</v>
       </c>
     </row>
     <row r="95">
@@ -6143,25 +6932,25 @@
         <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D95" t="n">
-        <v>2530.276276564</v>
+        <v>40.519230756</v>
       </c>
       <c r="E95" t="n">
-        <v>46.8276650802066</v>
+        <v>2.24558458290931</v>
       </c>
       <c r="F95" t="n">
-        <v>337.776430835007</v>
+        <v>5.54911180602508</v>
       </c>
       <c r="G95" t="n">
-        <v>491.029515319266</v>
+        <v>12.9408946269088</v>
       </c>
       <c r="H95" t="n">
-        <v>2868.05270739901</v>
+        <v>46.0683425620251</v>
       </c>
       <c r="I95" t="n">
-        <v>493.257351827155</v>
+        <v>13.1342835306597</v>
       </c>
     </row>
     <row r="96">
@@ -6172,31 +6961,751 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
+        <v>2021</v>
+      </c>
+      <c r="D96" t="n">
+        <v>90.461538432</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.01339813858824</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11.3584630675827</v>
+      </c>
+      <c r="G96" t="n">
+        <v>16.5119295063286</v>
+      </c>
+      <c r="H96" t="n">
+        <v>101.820001499583</v>
+      </c>
+      <c r="I96" t="n">
+        <v>17.2562445774845</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" t="n">
         <v>2022</v>
       </c>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
+      <c r="D97" t="n">
+        <v>129.096153846154</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.16005066546238</v>
+      </c>
+      <c r="F97" t="n">
+        <v>128.5867800857</v>
+      </c>
+      <c r="G97" t="n">
+        <v>227.24831426569</v>
+      </c>
+      <c r="H97" t="n">
+        <v>257.682933931854</v>
+      </c>
+      <c r="I97" t="n">
+        <v>227.361084317721</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>123.036144474</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12.1856222644558</v>
+      </c>
+      <c r="F98" t="n">
+        <v>84.7245330155006</v>
+      </c>
+      <c r="G98" t="n">
+        <v>121.886388801155</v>
+      </c>
+      <c r="H98" t="n">
+        <v>207.760677489501</v>
+      </c>
+      <c r="I98" t="n">
+        <v>122.494004608219</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>249.71428566</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9.20459113160384</v>
+      </c>
+      <c r="F99" t="n">
+        <v>122.299941493753</v>
+      </c>
+      <c r="G99" t="n">
+        <v>175.938468361452</v>
+      </c>
+      <c r="H99" t="n">
+        <v>372.014227153753</v>
+      </c>
+      <c r="I99" t="n">
+        <v>176.179082604246</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>256.72131144</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.53759537253095</v>
+      </c>
+      <c r="F100" t="n">
+        <v>133.66662087929</v>
+      </c>
+      <c r="G100" t="n">
+        <v>192.391863356884</v>
+      </c>
+      <c r="H100" t="n">
+        <v>390.38793231929</v>
+      </c>
+      <c r="I100" t="n">
+        <v>192.539462006971</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D101" t="n">
+        <v>263.1578946</v>
+      </c>
+      <c r="E101" t="n">
+        <v>13.157895348421</v>
+      </c>
+      <c r="F101" t="n">
+        <v>94.332528735428</v>
+      </c>
+      <c r="G101" t="n">
+        <v>135.91816122411</v>
+      </c>
+      <c r="H101" t="n">
+        <v>357.490423335428</v>
+      </c>
+      <c r="I101" t="n">
+        <v>136.553567366595</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D102" t="n">
+        <v>510.92391294</v>
+      </c>
+      <c r="E102" t="n">
+        <v>21.7266920273198</v>
+      </c>
+      <c r="F102" t="n">
+        <v>179.361830037932</v>
+      </c>
+      <c r="G102" t="n">
+        <v>258.061941254373</v>
+      </c>
+      <c r="H102" t="n">
+        <v>690.285742977932</v>
+      </c>
+      <c r="I102" t="n">
+        <v>258.974930582914</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D103" t="n">
+        <v>200.115384708</v>
+      </c>
+      <c r="E103" t="n">
+        <v>8.64482121110668</v>
+      </c>
+      <c r="F103" t="n">
+        <v>93.5274963789484</v>
+      </c>
+      <c r="G103" t="n">
+        <v>134.610484493107</v>
+      </c>
+      <c r="H103" t="n">
+        <v>293.642881086948</v>
+      </c>
+      <c r="I103" t="n">
+        <v>134.887788436319</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D104" t="n">
+        <v>360.983193183</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8.92132793988653</v>
+      </c>
+      <c r="F104" t="n">
+        <v>130.519455601638</v>
+      </c>
+      <c r="G104" t="n">
+        <v>187.690009671529</v>
+      </c>
+      <c r="H104" t="n">
+        <v>491.502648784638</v>
+      </c>
+      <c r="I104" t="n">
+        <v>187.901915431189</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D105" t="n">
+        <v>446.026785935</v>
+      </c>
+      <c r="E105" t="n">
+        <v>16.64788780146</v>
+      </c>
+      <c r="F105" t="n">
+        <v>164.67908613253</v>
+      </c>
+      <c r="G105" t="n">
+        <v>237.023379325833</v>
+      </c>
+      <c r="H105" t="n">
+        <v>610.70587206753</v>
+      </c>
+      <c r="I105" t="n">
+        <v>237.607311577922</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D106" t="n">
+        <v>216.468354585</v>
+      </c>
+      <c r="E106" t="n">
+        <v>19.1782819651031</v>
+      </c>
+      <c r="F106" t="n">
+        <v>133.566092673577</v>
+      </c>
+      <c r="G106" t="n">
+        <v>192.093440301246</v>
+      </c>
+      <c r="H106" t="n">
+        <v>350.034447258577</v>
+      </c>
+      <c r="I106" t="n">
+        <v>193.04842994933</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D107" t="n">
+        <v>405.11811046</v>
+      </c>
+      <c r="E107" t="n">
+        <v>16.5201158258651</v>
+      </c>
+      <c r="F107" t="n">
+        <v>150.389076904584</v>
+      </c>
+      <c r="G107" t="n">
+        <v>217.018558314112</v>
+      </c>
+      <c r="H107" t="n">
+        <v>555.507187364584</v>
+      </c>
+      <c r="I107" t="n">
+        <v>217.646430891103</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D108" t="n">
+        <v>462.277777708</v>
+      </c>
+      <c r="E108" t="n">
+        <v>32.8482842445081</v>
+      </c>
+      <c r="F108" t="n">
+        <v>146.509523904424</v>
+      </c>
+      <c r="G108" t="n">
+        <v>212.321358285016</v>
+      </c>
+      <c r="H108" t="n">
+        <v>608.787301612424</v>
+      </c>
+      <c r="I108" t="n">
+        <v>214.847315463336</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D109" t="n">
+        <v>239.303030145</v>
+      </c>
+      <c r="E109" t="n">
+        <v>22.5204038818801</v>
+      </c>
+      <c r="F109" t="n">
+        <v>148.715406581842</v>
+      </c>
+      <c r="G109" t="n">
+        <v>215.44941115792</v>
+      </c>
+      <c r="H109" t="n">
+        <v>388.018436726842</v>
+      </c>
+      <c r="I109" t="n">
+        <v>216.623215190103</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D110" t="n">
+        <v>276.804347961</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.44965337173803</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>78.3462396042831</v>
+      </c>
+      <c r="H110" t="n">
+        <v>276.804347961</v>
+      </c>
+      <c r="I110" t="n">
+        <v>78.9140621751139</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D111" t="n">
+        <v>393.482517355</v>
+      </c>
+      <c r="E111" t="n">
+        <v>18.7976410116004</v>
+      </c>
+      <c r="F111" t="n">
+        <v>327.228218673029</v>
+      </c>
+      <c r="G111" t="n">
+        <v>305.72659397008</v>
+      </c>
+      <c r="H111" t="n">
+        <v>720.710736028029</v>
+      </c>
+      <c r="I111" t="n">
+        <v>306.303936586109</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D112" t="n">
+        <v>469.64601783</v>
+      </c>
+      <c r="E112" t="n">
+        <v>20.4182716775931</v>
+      </c>
+      <c r="F112" t="n">
+        <v>122.547024235025</v>
+      </c>
+      <c r="G112" t="n">
+        <v>243.031296886498</v>
+      </c>
+      <c r="H112" t="n">
+        <v>592.193042065025</v>
+      </c>
+      <c r="I112" t="n">
+        <v>243.887509078742</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D113" t="n">
+        <v>730.996753305</v>
+      </c>
+      <c r="E113" t="n">
+        <v>19.881393399684</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1636.96644342072</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2292.00997052451</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2367.96319672572</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2292.09619666961</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="n">
+        <v>594.1747571</v>
+      </c>
+      <c r="E114" t="n">
+        <v>38.6036836972846</v>
+      </c>
+      <c r="F114" t="n">
+        <v>111.961190419807</v>
+      </c>
+      <c r="G114" t="n">
+        <v>564.85837360001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>706.135947519807</v>
+      </c>
+      <c r="I114" t="n">
+        <v>566.175967894301</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>925.15576398</v>
+      </c>
+      <c r="E115" t="n">
+        <v>47.2386401060191</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1257.09930927835</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1761.92743461475</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2182.25507325835</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1762.56057313421</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D116" t="n">
+        <v>683.280334352</v>
+      </c>
+      <c r="E116" t="n">
+        <v>34.422200262505</v>
+      </c>
+      <c r="F116" t="n">
+        <v>919.825536766058</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2039.46370001712</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1603.10587111806</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2039.75416939356</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1382.882883342</v>
+      </c>
+      <c r="E117" t="n">
+        <v>43.7306085074059</v>
+      </c>
+      <c r="F117" t="n">
+        <v>366.634585015046</v>
+      </c>
+      <c r="G117" t="n">
+        <v>506.876111129667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1749.51746835705</v>
+      </c>
+      <c r="I117" t="n">
+        <v>508.759037417874</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D118" t="n">
+        <v>868.718893888</v>
+      </c>
+      <c r="E118" t="n">
+        <v>30.2339104238932</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2351.88952905812</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3260.09441350093</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3220.60842294612</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3260.23460417797</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1001.148648321</v>
+      </c>
+      <c r="E119" t="n">
+        <v>68.8703988962094</v>
+      </c>
+      <c r="F119" t="n">
+        <v>184.024033381204</v>
+      </c>
+      <c r="G119" t="n">
+        <v>429.156179952837</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1185.1726817022</v>
+      </c>
+      <c r="I119" t="n">
+        <v>434.647165682505</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2530.276276564</v>
+      </c>
+      <c r="E120" t="n">
+        <v>46.8276650802066</v>
+      </c>
+      <c r="F120" t="n">
+        <v>337.776430835007</v>
+      </c>
+      <c r="G120" t="n">
+        <v>491.029515319266</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2868.05270739901</v>
+      </c>
+      <c r="I120" t="n">
+        <v>493.257351827155</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1954.09448818898</v>
+      </c>
+      <c r="E121" t="n">
+        <v>56.2343901967805</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>872.795525217682</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1954.09448818898</v>
+      </c>
+      <c r="I121" t="n">
+        <v>874.605245514119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6954,10 +8463,18 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="F26" t="n">
+        <v>410.694634381587</v>
+      </c>
+      <c r="G26" t="n">
+        <v>204.228837513174</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1082.69463438159</v>
+      </c>
+      <c r="I26" t="n">
+        <v>204.228837513174</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -7671,10 +9188,18 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="F51" t="n">
+        <v>3.72715863416225</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.95646155537495</v>
+      </c>
+      <c r="H51" t="n">
+        <v>102.727158634162</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.95646155537495</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -7687,22 +9212,22 @@
         <v>1998</v>
       </c>
       <c r="D52" t="n">
-        <v>3.52393813063825</v>
+        <v>266.562163916606</v>
       </c>
       <c r="E52" t="n">
-        <v>1.20955244210935</v>
+        <v>92.1083596309747</v>
       </c>
       <c r="F52" t="n">
-        <v>0.882925993848038</v>
+        <v>38.6250498738584</v>
       </c>
       <c r="G52" t="n">
-        <v>0.667626325912828</v>
+        <v>26.0517971756037</v>
       </c>
       <c r="H52" t="n">
-        <v>4.40686412448629</v>
+        <v>305.187213790464</v>
       </c>
       <c r="I52" t="n">
-        <v>1.38157230041158</v>
+        <v>95.7217114869337</v>
       </c>
     </row>
     <row r="53">
@@ -7716,22 +9241,22 @@
         <v>1999</v>
       </c>
       <c r="D53" t="n">
-        <v>10.5718143919147</v>
+        <v>92.3317084407813</v>
       </c>
       <c r="E53" t="n">
-        <v>3.62865732632805</v>
+        <v>31.9044611637623</v>
       </c>
       <c r="F53" t="n">
-        <v>2.8776847206899</v>
+        <v>39.0971782510189</v>
       </c>
       <c r="G53" t="n">
-        <v>2.17596728445662</v>
+        <v>20.5448647080118</v>
       </c>
       <c r="H53" t="n">
-        <v>13.4494991126046</v>
+        <v>131.4288866918</v>
       </c>
       <c r="I53" t="n">
-        <v>4.23107404980577</v>
+        <v>37.9471488786776</v>
       </c>
     </row>
     <row r="54">
@@ -7745,22 +9270,22 @@
         <v>2000</v>
       </c>
       <c r="D54" t="n">
-        <v>42.287257567659</v>
+        <v>130.412017571725</v>
       </c>
       <c r="E54" t="n">
-        <v>14.5146293053122</v>
+        <v>45.0627982539015</v>
       </c>
       <c r="F54" t="n">
-        <v>2.12556257778231</v>
+        <v>8.44623441458135</v>
       </c>
       <c r="G54" t="n">
-        <v>1.60724856238273</v>
+        <v>9.23198759029957</v>
       </c>
       <c r="H54" t="n">
-        <v>44.4128201454413</v>
+        <v>138.858251986306</v>
       </c>
       <c r="I54" t="n">
-        <v>14.6033459115337</v>
+        <v>45.9987541281204</v>
       </c>
     </row>
     <row r="55">
@@ -7774,22 +9299,22 @@
         <v>2001</v>
       </c>
       <c r="D55" t="n">
-        <v>13.3909648964253</v>
+        <v>118.414111955126</v>
       </c>
       <c r="E55" t="n">
-        <v>4.59629928001553</v>
+        <v>40.9170208145426</v>
       </c>
       <c r="F55" t="n">
-        <v>0.882925993848038</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.667626325912828</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>14.2738908902734</v>
+        <v>118.414111955126</v>
       </c>
       <c r="I55" t="n">
-        <v>4.64453355919872</v>
+        <v>40.9170208145426</v>
       </c>
     </row>
     <row r="56">
@@ -7803,22 +9328,22 @@
         <v>2002</v>
       </c>
       <c r="D56" t="n">
-        <v>7.75266388740415</v>
+        <v>109.546094760249</v>
       </c>
       <c r="E56" t="n">
-        <v>2.66101537264057</v>
+        <v>37.8527505332773</v>
       </c>
       <c r="F56" t="n">
-        <v>3.23739531077614</v>
+        <v>116.725186683496</v>
       </c>
       <c r="G56" t="n">
-        <v>2.4479631950137</v>
+        <v>51.0224876740271</v>
       </c>
       <c r="H56" t="n">
-        <v>10.9900591981803</v>
+        <v>226.271281443745</v>
       </c>
       <c r="I56" t="n">
-        <v>3.61573320608298</v>
+        <v>63.5305042588265</v>
       </c>
     </row>
     <row r="57">
@@ -7832,22 +9357,22 @@
         <v>2003</v>
       </c>
       <c r="D57" t="n">
-        <v>28.191505045106</v>
+        <v>138.758386696315</v>
       </c>
       <c r="E57" t="n">
-        <v>9.6764195368748</v>
+        <v>47.9468173421512</v>
       </c>
       <c r="F57" t="n">
-        <v>4.7089386338562</v>
+        <v>11.4227748326141</v>
       </c>
       <c r="G57" t="n">
-        <v>3.56067373820175</v>
+        <v>12.485440322468</v>
       </c>
       <c r="H57" t="n">
-        <v>32.9004436789622</v>
+        <v>150.18116152893</v>
       </c>
       <c r="I57" t="n">
-        <v>10.310746458115</v>
+        <v>49.545771901218</v>
       </c>
     </row>
     <row r="58">
@@ -7861,22 +9386,22 @@
         <v>2004</v>
       </c>
       <c r="D58" t="n">
-        <v>28.8962926712336</v>
+        <v>116.327519673979</v>
       </c>
       <c r="E58" t="n">
-        <v>9.91833002529667</v>
+        <v>40.1960160424802</v>
       </c>
       <c r="F58" t="n">
-        <v>6.5401925470225</v>
+        <v>108.593356460371</v>
       </c>
       <c r="G58" t="n">
-        <v>4.94538019194687</v>
+        <v>60.3963981376908</v>
       </c>
       <c r="H58" t="n">
-        <v>35.4364852182561</v>
+        <v>224.92087613435</v>
       </c>
       <c r="I58" t="n">
-        <v>11.0828721788895</v>
+        <v>72.5496010581298</v>
       </c>
     </row>
     <row r="59">
@@ -7890,22 +9415,22 @@
         <v>2005</v>
       </c>
       <c r="D59" t="n">
-        <v>112.061232554296</v>
+        <v>164.84079021066</v>
       </c>
       <c r="E59" t="n">
-        <v>38.4637676590773</v>
+        <v>56.9593769929315</v>
       </c>
       <c r="F59" t="n">
-        <v>9.38517630497729</v>
+        <v>20.7706299399208</v>
       </c>
       <c r="G59" t="n">
-        <v>7.09662057544376</v>
+        <v>22.7029297622941</v>
       </c>
       <c r="H59" t="n">
-        <v>121.446408859274</v>
+        <v>185.611420150581</v>
       </c>
       <c r="I59" t="n">
-        <v>39.1129575220706</v>
+        <v>61.3171562225007</v>
       </c>
     </row>
     <row r="60">
@@ -7919,22 +9444,22 @@
         <v>2006</v>
       </c>
       <c r="D60" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>9.90839170873909</v>
+        <v>110.609730845901</v>
       </c>
       <c r="G60" t="n">
-        <v>7.49225099079951</v>
+        <v>66.7065484143989</v>
       </c>
       <c r="H60" t="n">
-        <v>78.9083917087391</v>
+        <v>206.609730845901</v>
       </c>
       <c r="I60" t="n">
-        <v>7.49225099079951</v>
+        <v>66.7065484143989</v>
       </c>
     </row>
     <row r="61">
@@ -7948,22 +9473,22 @@
         <v>2007</v>
       </c>
       <c r="D61" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>37.5407052199092</v>
+        <v>46.5406207977955</v>
       </c>
       <c r="G61" t="n">
-        <v>28.386482301775</v>
+        <v>50.8702308473235</v>
       </c>
       <c r="H61" t="n">
-        <v>194.540705219909</v>
+        <v>202.540620797795</v>
       </c>
       <c r="I61" t="n">
-        <v>28.386482301775</v>
+        <v>50.8702308473235</v>
       </c>
     </row>
     <row r="62">
@@ -7977,22 +9502,22 @@
         <v>2008</v>
       </c>
       <c r="D62" t="n">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>36.9520878906771</v>
+        <v>64.9980668235111</v>
       </c>
       <c r="G62" t="n">
-        <v>27.9413980844998</v>
+        <v>71.0448625830556</v>
       </c>
       <c r="H62" t="n">
-        <v>95.9520878906771</v>
+        <v>332.998066823511</v>
       </c>
       <c r="I62" t="n">
-        <v>27.9413980844998</v>
+        <v>71.0448625830556</v>
       </c>
     </row>
     <row r="63">
@@ -8006,22 +9531,22 @@
         <v>2009</v>
       </c>
       <c r="D63" t="n">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>26.4877798154411</v>
+        <v>510.561138482668</v>
       </c>
       <c r="G63" t="n">
-        <v>20.0287897773848</v>
+        <v>250.166420902304</v>
       </c>
       <c r="H63" t="n">
-        <v>102.487779815441</v>
+        <v>700.561138482668</v>
       </c>
       <c r="I63" t="n">
-        <v>20.0287897773848</v>
+        <v>250.166420902304</v>
       </c>
     </row>
     <row r="64">
@@ -8035,22 +9560,22 @@
         <v>2010</v>
       </c>
       <c r="D64" t="n">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>21.0594200014125</v>
+        <v>192.066662778472</v>
       </c>
       <c r="G64" t="n">
-        <v>15.9241242180689</v>
+        <v>189.813067288061</v>
       </c>
       <c r="H64" t="n">
-        <v>101.059420001412</v>
+        <v>480.066662778472</v>
       </c>
       <c r="I64" t="n">
-        <v>15.9241242180689</v>
+        <v>189.813067288061</v>
       </c>
     </row>
     <row r="65">
@@ -8064,22 +9589,22 @@
         <v>2011</v>
       </c>
       <c r="D65" t="n">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>18.0558651214926</v>
+        <v>253.543213411622</v>
       </c>
       <c r="G65" t="n">
-        <v>15.3604047440725</v>
+        <v>160.727224186213</v>
       </c>
       <c r="H65" t="n">
-        <v>95.0558651214926</v>
+        <v>393.543213411622</v>
       </c>
       <c r="I65" t="n">
-        <v>15.3604047440725</v>
+        <v>160.727224186213</v>
       </c>
     </row>
     <row r="66">
@@ -8093,22 +9618,22 @@
         <v>2012</v>
       </c>
       <c r="D66" t="n">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>65.8725224728311</v>
+        <v>64.5552833103794</v>
       </c>
       <c r="G66" t="n">
-        <v>47.7330053880272</v>
+        <v>50.8665638473977</v>
       </c>
       <c r="H66" t="n">
-        <v>172.872522472831</v>
+        <v>269.555283310379</v>
       </c>
       <c r="I66" t="n">
-        <v>47.7330053880272</v>
+        <v>50.8665638473977</v>
       </c>
     </row>
     <row r="67">
@@ -8122,22 +9647,22 @@
         <v>2013</v>
       </c>
       <c r="D67" t="n">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>23.3838869390109</v>
+        <v>317.515216602213</v>
       </c>
       <c r="G67" t="n">
-        <v>18.7681945735918</v>
+        <v>154.198672245583</v>
       </c>
       <c r="H67" t="n">
-        <v>136.383886939011</v>
+        <v>678.515216602214</v>
       </c>
       <c r="I67" t="n">
-        <v>18.7681945735918</v>
+        <v>154.198672245583</v>
       </c>
     </row>
     <row r="68">
@@ -8151,22 +9676,22 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>49</v>
+        <v>392</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>24.5102221197734</v>
+        <v>429.445029778415</v>
       </c>
       <c r="G68" t="n">
-        <v>18.7013780606822</v>
+        <v>168.392245562626</v>
       </c>
       <c r="H68" t="n">
-        <v>73.5102221197734</v>
+        <v>821.445029778415</v>
       </c>
       <c r="I68" t="n">
-        <v>18.7013780606822</v>
+        <v>168.392245562626</v>
       </c>
     </row>
     <row r="69">
@@ -8180,22 +9705,22 @@
         <v>2015</v>
       </c>
       <c r="D69" t="n">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>31.4071434183648</v>
+        <v>311.950657241301</v>
       </c>
       <c r="G69" t="n">
-        <v>32.1969224762937</v>
+        <v>133.548110596176</v>
       </c>
       <c r="H69" t="n">
-        <v>99.4071434183649</v>
+        <v>705.950657241302</v>
       </c>
       <c r="I69" t="n">
-        <v>32.1969224762937</v>
+        <v>133.548110596176</v>
       </c>
     </row>
     <row r="70">
@@ -8209,22 +9734,22 @@
         <v>2016</v>
       </c>
       <c r="D70" t="n">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>10.5238643884017</v>
+        <v>221.052598745187</v>
       </c>
       <c r="G70" t="n">
-        <v>8.90200802756578</v>
+        <v>127.494512516464</v>
       </c>
       <c r="H70" t="n">
-        <v>98.5238643884017</v>
+        <v>646.052598745187</v>
       </c>
       <c r="I70" t="n">
-        <v>8.90200802756578</v>
+        <v>127.494512516464</v>
       </c>
     </row>
     <row r="71">
@@ -8238,22 +9763,22 @@
         <v>2017</v>
       </c>
       <c r="D71" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>25.5518661258873</v>
+        <v>68.3324096972623</v>
       </c>
       <c r="G71" t="n">
-        <v>18.8487531799229</v>
+        <v>34.1323341131008</v>
       </c>
       <c r="H71" t="n">
-        <v>76.5518661258873</v>
+        <v>244.332409697262</v>
       </c>
       <c r="I71" t="n">
-        <v>18.8487531799229</v>
+        <v>34.1323341131008</v>
       </c>
     </row>
     <row r="72">
@@ -8267,22 +9792,22 @@
         <v>2018</v>
       </c>
       <c r="D72" t="n">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>11.9977664245178</v>
+        <v>174.396904369547</v>
       </c>
       <c r="G72" t="n">
-        <v>9.13122234194974</v>
+        <v>88.5358041121305</v>
       </c>
       <c r="H72" t="n">
-        <v>82.9977664245178</v>
+        <v>383.396904369547</v>
       </c>
       <c r="I72" t="n">
-        <v>9.13122234194974</v>
+        <v>88.5358041121305</v>
       </c>
     </row>
     <row r="73">
@@ -8296,22 +9821,22 @@
         <v>2019</v>
       </c>
       <c r="D73" t="n">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>26.5954010473953</v>
+        <v>386.387252706857</v>
       </c>
       <c r="G73" t="n">
-        <v>23.969476347761</v>
+        <v>154.486860396296</v>
       </c>
       <c r="H73" t="n">
-        <v>146.595401047395</v>
+        <v>663.387252706857</v>
       </c>
       <c r="I73" t="n">
-        <v>23.969476347761</v>
+        <v>154.486860396296</v>
       </c>
     </row>
     <row r="74">
@@ -8325,22 +9850,22 @@
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>6.73687016744221</v>
+        <v>401.923672931091</v>
       </c>
       <c r="G74" t="n">
-        <v>4.37232151009685</v>
+        <v>187.25951346036</v>
       </c>
       <c r="H74" t="n">
-        <v>52.7368701674422</v>
+        <v>628.923672931091</v>
       </c>
       <c r="I74" t="n">
-        <v>4.37232151009685</v>
+        <v>187.25951346036</v>
       </c>
     </row>
     <row r="75">
@@ -8354,22 +9879,22 @@
         <v>2021</v>
       </c>
       <c r="D75" t="n">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>29.5870406084839</v>
+        <v>33.9350349275695</v>
       </c>
       <c r="G75" t="n">
-        <v>16.8323456109155</v>
+        <v>35.773520310211</v>
       </c>
       <c r="H75" t="n">
-        <v>191.587040608484</v>
+        <v>454.93503492757</v>
       </c>
       <c r="I75" t="n">
-        <v>16.8323456109155</v>
+        <v>35.773520310211</v>
       </c>
     </row>
     <row r="76">
@@ -8377,28 +9902,28 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="D76" t="n">
-        <v>23.0859426496414</v>
+        <v>362</v>
       </c>
       <c r="E76" t="n">
-        <v>2.07774730311708</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>6.90056337266933</v>
+        <v>62.8375096742164</v>
       </c>
       <c r="G76" t="n">
-        <v>4.58234325479906</v>
+        <v>49.6054868731571</v>
       </c>
       <c r="H76" t="n">
-        <v>29.9865060223108</v>
+        <v>424.837509674216</v>
       </c>
       <c r="I76" t="n">
-        <v>5.03139181145861</v>
+        <v>49.6054868731571</v>
       </c>
     </row>
     <row r="77">
@@ -8409,25 +9934,25 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D77" t="n">
-        <v>3.72353913703894</v>
+        <v>3.52393813063825</v>
       </c>
       <c r="E77" t="n">
-        <v>0.335120532760819</v>
+        <v>1.20955244210935</v>
       </c>
       <c r="F77" t="n">
-        <v>10.6305976281663</v>
+        <v>0.882925993848038</v>
       </c>
       <c r="G77" t="n">
-        <v>7.05928555469045</v>
+        <v>0.667626325912828</v>
       </c>
       <c r="H77" t="n">
-        <v>14.3541367652052</v>
+        <v>4.40686412448629</v>
       </c>
       <c r="I77" t="n">
-        <v>7.06723554964309</v>
+        <v>1.38157230041158</v>
       </c>
     </row>
     <row r="78">
@@ -8438,25 +9963,25 @@
         <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D78" t="n">
-        <v>58.0872105378075</v>
+        <v>10.5718143919147</v>
       </c>
       <c r="E78" t="n">
-        <v>5.22788031106877</v>
+        <v>3.62865732632805</v>
       </c>
       <c r="F78" t="n">
-        <v>17.9974152827727</v>
+        <v>2.8776847206899</v>
       </c>
       <c r="G78" t="n">
-        <v>11.9512465969759</v>
+        <v>2.17596728445662</v>
       </c>
       <c r="H78" t="n">
-        <v>76.0846258205802</v>
+        <v>13.4494991126046</v>
       </c>
       <c r="I78" t="n">
-        <v>13.0446551418038</v>
+        <v>4.23107404980577</v>
       </c>
     </row>
     <row r="79">
@@ -8467,25 +9992,25 @@
         <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D79" t="n">
-        <v>17.8729878577869</v>
+        <v>42.287257567659</v>
       </c>
       <c r="E79" t="n">
-        <v>1.60857855725193</v>
+        <v>14.5146293053122</v>
       </c>
       <c r="F79" t="n">
-        <v>55.1112561249672</v>
+        <v>2.12556257778231</v>
       </c>
       <c r="G79" t="n">
-        <v>36.5968224808952</v>
+        <v>1.60724856238273</v>
       </c>
       <c r="H79" t="n">
-        <v>72.9842439827541</v>
+        <v>44.4128201454413</v>
       </c>
       <c r="I79" t="n">
-        <v>36.6321571938237</v>
+        <v>14.6033459115337</v>
       </c>
     </row>
     <row r="80">
@@ -8496,25 +10021,25 @@
         <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D80" t="n">
-        <v>51.3848400911374</v>
+        <v>13.3909648964253</v>
       </c>
       <c r="E80" t="n">
-        <v>4.6246633520993</v>
+        <v>4.59629928001553</v>
       </c>
       <c r="F80" t="n">
-        <v>41.0303768104663</v>
+        <v>0.882925993848038</v>
       </c>
       <c r="G80" t="n">
-        <v>27.2463652988052</v>
+        <v>0.667626325912828</v>
       </c>
       <c r="H80" t="n">
-        <v>92.4152169016037</v>
+        <v>14.2738908902734</v>
       </c>
       <c r="I80" t="n">
-        <v>27.6360621854162</v>
+        <v>4.64453355919872</v>
       </c>
     </row>
     <row r="81">
@@ -8525,25 +10050,25 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D81" t="n">
-        <v>110.961466283761</v>
+        <v>7.75266388740415</v>
       </c>
       <c r="E81" t="n">
-        <v>9.9865918762724</v>
+        <v>2.66101537264057</v>
       </c>
       <c r="F81" t="n">
-        <v>51.6143490104388</v>
+        <v>3.23739531077614</v>
       </c>
       <c r="G81" t="n">
-        <v>34.274689074747</v>
+        <v>2.4479631950137</v>
       </c>
       <c r="H81" t="n">
-        <v>162.575815294199</v>
+        <v>10.9900591981803</v>
       </c>
       <c r="I81" t="n">
-        <v>35.6999485780276</v>
+        <v>3.61573320608298</v>
       </c>
     </row>
     <row r="82">
@@ -8554,25 +10079,25 @@
         <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D82" t="n">
-        <v>70.0025357763321</v>
+        <v>28.191505045106</v>
       </c>
       <c r="E82" t="n">
-        <v>6.30026601590339</v>
+        <v>9.6764195368748</v>
       </c>
       <c r="F82" t="n">
-        <v>37.7665968369065</v>
+        <v>4.7089386338562</v>
       </c>
       <c r="G82" t="n">
-        <v>25.0790407864003</v>
+        <v>3.56067373820175</v>
       </c>
       <c r="H82" t="n">
-        <v>107.769132613239</v>
+        <v>32.9004436789622</v>
       </c>
       <c r="I82" t="n">
-        <v>25.8582992216634</v>
+        <v>10.310746458115</v>
       </c>
     </row>
     <row r="83">
@@ -8583,25 +10108,25 @@
         <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D83" t="n">
-        <v>99.0461410452359</v>
+        <v>28.8962926712336</v>
       </c>
       <c r="E83" t="n">
-        <v>8.91420617143778</v>
+        <v>9.91833002529667</v>
       </c>
       <c r="F83" t="n">
-        <v>59.027792093239</v>
+        <v>6.5401925470225</v>
       </c>
       <c r="G83" t="n">
-        <v>39.1976118957812</v>
+        <v>4.94538019194687</v>
       </c>
       <c r="H83" t="n">
-        <v>158.073933138475</v>
+        <v>35.4364852182561</v>
       </c>
       <c r="I83" t="n">
-        <v>40.198455816103</v>
+        <v>11.0828721788895</v>
       </c>
     </row>
     <row r="84">
@@ -8612,25 +10137,25 @@
         <v>13</v>
       </c>
       <c r="C84" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D84" t="n">
-        <v>118</v>
+        <v>112.061232554296</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>38.4637676590773</v>
       </c>
       <c r="F84" t="n">
-        <v>34.3629405787655</v>
+        <v>9.38517630497729</v>
       </c>
       <c r="G84" t="n">
-        <v>22.8188309377494</v>
+        <v>7.09662057544376</v>
       </c>
       <c r="H84" t="n">
-        <v>152.362940578766</v>
+        <v>121.446408859274</v>
       </c>
       <c r="I84" t="n">
-        <v>22.8188309377494</v>
+        <v>39.1129575220706</v>
       </c>
     </row>
     <row r="85">
@@ -8641,25 +10166,25 @@
         <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D85" t="n">
-        <v>242</v>
+        <v>69</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>76.6988293786557</v>
+        <v>9.90839170873909</v>
       </c>
       <c r="G85" t="n">
-        <v>50.9321260415166</v>
+        <v>7.49225099079951</v>
       </c>
       <c r="H85" t="n">
-        <v>318.698829378656</v>
+        <v>78.9083917087391</v>
       </c>
       <c r="I85" t="n">
-        <v>50.9321260415166</v>
+        <v>7.49225099079951</v>
       </c>
     </row>
     <row r="86">
@@ -8670,25 +10195,25 @@
         <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D86" t="n">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>55.7640121196792</v>
+        <v>37.5407052199092</v>
       </c>
       <c r="G86" t="n">
-        <v>37.0302873833762</v>
+        <v>28.386482301775</v>
       </c>
       <c r="H86" t="n">
-        <v>266.764012119679</v>
+        <v>194.540705219909</v>
       </c>
       <c r="I86" t="n">
-        <v>37.0302873833762</v>
+        <v>28.386482301775</v>
       </c>
     </row>
     <row r="87">
@@ -8699,25 +10224,25 @@
         <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D87" t="n">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>86.2104167301729</v>
+        <v>36.9520878906771</v>
       </c>
       <c r="G87" t="n">
-        <v>57.2483289062396</v>
+        <v>27.9413980844998</v>
       </c>
       <c r="H87" t="n">
-        <v>335.210416730173</v>
+        <v>95.9520878906771</v>
       </c>
       <c r="I87" t="n">
-        <v>57.2483289062396</v>
+        <v>27.9413980844998</v>
       </c>
     </row>
     <row r="88">
@@ -8728,25 +10253,25 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D88" t="n">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>59.027792093239</v>
+        <v>26.4877798154411</v>
       </c>
       <c r="G88" t="n">
-        <v>39.1976118957812</v>
+        <v>20.0287897773848</v>
       </c>
       <c r="H88" t="n">
-        <v>376.027792093239</v>
+        <v>102.487779815441</v>
       </c>
       <c r="I88" t="n">
-        <v>39.1976118957812</v>
+        <v>20.0287897773848</v>
       </c>
     </row>
     <row r="89">
@@ -8757,25 +10282,25 @@
         <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D89" t="n">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>51.9189508261432</v>
+        <v>21.0594200014125</v>
       </c>
       <c r="G89" t="n">
-        <v>39.2764129994525</v>
+        <v>15.9241242180689</v>
       </c>
       <c r="H89" t="n">
-        <v>214.918950826143</v>
+        <v>101.059420001412</v>
       </c>
       <c r="I89" t="n">
-        <v>39.2764129994525</v>
+        <v>15.9241242180689</v>
       </c>
     </row>
     <row r="90">
@@ -8786,25 +10311,25 @@
         <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D90" t="n">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>181.815391929108</v>
+        <v>18.0558651214926</v>
       </c>
       <c r="G90" t="n">
-        <v>113.703973707496</v>
+        <v>15.3604047440725</v>
       </c>
       <c r="H90" t="n">
-        <v>516.815391929108</v>
+        <v>95.0558651214926</v>
       </c>
       <c r="I90" t="n">
-        <v>113.703973707496</v>
+        <v>15.3604047440725</v>
       </c>
     </row>
     <row r="91">
@@ -8815,25 +10340,25 @@
         <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D91" t="n">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>64.9793249583407</v>
+        <v>65.8725224728311</v>
       </c>
       <c r="G91" t="n">
-        <v>45.935409216011</v>
+        <v>47.7330053880272</v>
       </c>
       <c r="H91" t="n">
-        <v>343.979324958341</v>
+        <v>172.872522472831</v>
       </c>
       <c r="I91" t="n">
-        <v>45.935409216011</v>
+        <v>47.7330053880272</v>
       </c>
     </row>
     <row r="92">
@@ -8844,25 +10369,25 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>404</v>
+        <v>113</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>130.435860557479</v>
+        <v>23.3838869390109</v>
       </c>
       <c r="G92" t="n">
-        <v>86.8330799503126</v>
+        <v>18.7681945735918</v>
       </c>
       <c r="H92" t="n">
-        <v>534.435860557479</v>
+        <v>136.383886939011</v>
       </c>
       <c r="I92" t="n">
-        <v>86.8330799503126</v>
+        <v>18.7681945735918</v>
       </c>
     </row>
     <row r="93">
@@ -8873,25 +10398,25 @@
         <v>13</v>
       </c>
       <c r="C93" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>149.459608553298</v>
+        <v>24.5102221197734</v>
       </c>
       <c r="G93" t="n">
-        <v>139.466450289918</v>
+        <v>18.7013780606822</v>
       </c>
       <c r="H93" t="n">
-        <v>434.459608553298</v>
+        <v>73.5102221197734</v>
       </c>
       <c r="I93" t="n">
-        <v>139.466450289918</v>
+        <v>18.7013780606822</v>
       </c>
     </row>
     <row r="94">
@@ -8902,25 +10427,25 @@
         <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>68</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>47.7091680034086</v>
+        <v>31.4071434183648</v>
       </c>
       <c r="G94" t="n">
-        <v>28.4029920534701</v>
+        <v>32.1969224762937</v>
       </c>
       <c r="H94" t="n">
-        <v>635.709168003409</v>
+        <v>99.4071434183649</v>
       </c>
       <c r="I94" t="n">
-        <v>28.4029920534701</v>
+        <v>32.1969224762937</v>
       </c>
     </row>
     <row r="95">
@@ -8931,25 +10456,25 @@
         <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>493</v>
+        <v>88</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>161.314251729213</v>
+        <v>10.5238643884017</v>
       </c>
       <c r="G95" t="n">
-        <v>94.4516564822206</v>
+        <v>8.90200802756578</v>
       </c>
       <c r="H95" t="n">
-        <v>654.314251729213</v>
+        <v>98.5238643884017</v>
       </c>
       <c r="I95" t="n">
-        <v>94.4516564822206</v>
+        <v>8.90200802756578</v>
       </c>
     </row>
     <row r="96">
@@ -8960,25 +10485,25 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D96" t="n">
-        <v>540</v>
+        <v>51</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>111.278823516972</v>
+        <v>25.5518661258873</v>
       </c>
       <c r="G96" t="n">
-        <v>67.9928794162569</v>
+        <v>18.8487531799229</v>
       </c>
       <c r="H96" t="n">
-        <v>651.278823516972</v>
+        <v>76.5518661258873</v>
       </c>
       <c r="I96" t="n">
-        <v>67.9928794162569</v>
+        <v>18.8487531799229</v>
       </c>
     </row>
     <row r="97">
@@ -8989,25 +10514,25 @@
         <v>13</v>
       </c>
       <c r="C97" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D97" t="n">
-        <v>1037</v>
+        <v>71</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>731.119735561457</v>
+        <v>11.9977664245178</v>
       </c>
       <c r="G97" t="n">
-        <v>354.541088022985</v>
+        <v>9.13122234194974</v>
       </c>
       <c r="H97" t="n">
-        <v>1768.11973556146</v>
+        <v>82.9977664245178</v>
       </c>
       <c r="I97" t="n">
-        <v>354.541088022985</v>
+        <v>9.13122234194974</v>
       </c>
     </row>
     <row r="98">
@@ -9018,25 +10543,25 @@
         <v>13</v>
       </c>
       <c r="C98" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D98" t="n">
-        <v>455</v>
+        <v>120</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>120.26387719406</v>
+        <v>26.5954010473953</v>
       </c>
       <c r="G98" t="n">
-        <v>67.3664529377352</v>
+        <v>23.969476347761</v>
       </c>
       <c r="H98" t="n">
-        <v>575.26387719406</v>
+        <v>146.595401047395</v>
       </c>
       <c r="I98" t="n">
-        <v>67.3664529377352</v>
+        <v>23.969476347761</v>
       </c>
     </row>
     <row r="99">
@@ -9047,25 +10572,25 @@
         <v>13</v>
       </c>
       <c r="C99" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D99" t="n">
-        <v>754</v>
+        <v>46</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>190.16196864297</v>
+        <v>6.73687016744221</v>
       </c>
       <c r="G99" t="n">
-        <v>93.3697418682409</v>
+        <v>4.37232151009685</v>
       </c>
       <c r="H99" t="n">
-        <v>944.16196864297</v>
+        <v>52.7368701674422</v>
       </c>
       <c r="I99" t="n">
-        <v>93.3697418682409</v>
+        <v>4.37232151009685</v>
       </c>
     </row>
     <row r="100">
@@ -9076,37 +10601,780 @@
         <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D100"/>
+        <v>2021</v>
+      </c>
+      <c r="D100" t="n">
+        <v>162</v>
+      </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+      <c r="F100" t="n">
+        <v>29.5870406084839</v>
+      </c>
+      <c r="G100" t="n">
+        <v>16.8323456109155</v>
+      </c>
+      <c r="H100" t="n">
+        <v>191.587040608484</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16.8323456109155</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" t="n">
         <v>2022</v>
       </c>
       <c r="D101" t="n">
-        <v>362</v>
+        <v>190</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
+      <c r="F101" t="n">
+        <v>64.584471616259</v>
+      </c>
+      <c r="G101" t="n">
+        <v>37.8910524690887</v>
+      </c>
+      <c r="H101" t="n">
+        <v>254.584471616259</v>
+      </c>
+      <c r="I101" t="n">
+        <v>37.8910524690887</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D102" t="n">
+        <v>23.0859426496414</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.07774730311708</v>
+      </c>
+      <c r="F102" t="n">
+        <v>6.90056337266933</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4.58234325479906</v>
+      </c>
+      <c r="H102" t="n">
+        <v>29.9865060223108</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.03139181145861</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.72353913703894</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.335120532760819</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10.6305976281663</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7.05928555469045</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14.3541367652052</v>
+      </c>
+      <c r="I103" t="n">
+        <v>7.06723554964309</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D104" t="n">
+        <v>58.0872105378075</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.22788031106877</v>
+      </c>
+      <c r="F104" t="n">
+        <v>17.9974152827727</v>
+      </c>
+      <c r="G104" t="n">
+        <v>11.9512465969759</v>
+      </c>
+      <c r="H104" t="n">
+        <v>76.0846258205802</v>
+      </c>
+      <c r="I104" t="n">
+        <v>13.0446551418038</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>17.8729878577869</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.60857855725193</v>
+      </c>
+      <c r="F105" t="n">
+        <v>55.1112561249672</v>
+      </c>
+      <c r="G105" t="n">
+        <v>36.5968224808952</v>
+      </c>
+      <c r="H105" t="n">
+        <v>72.9842439827541</v>
+      </c>
+      <c r="I105" t="n">
+        <v>36.6321571938237</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D106" t="n">
+        <v>51.3848400911374</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.6246633520993</v>
+      </c>
+      <c r="F106" t="n">
+        <v>41.0303768104663</v>
+      </c>
+      <c r="G106" t="n">
+        <v>27.2463652988052</v>
+      </c>
+      <c r="H106" t="n">
+        <v>92.4152169016037</v>
+      </c>
+      <c r="I106" t="n">
+        <v>27.6360621854162</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D107" t="n">
+        <v>110.961466283761</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9.9865918762724</v>
+      </c>
+      <c r="F107" t="n">
+        <v>51.6143490104388</v>
+      </c>
+      <c r="G107" t="n">
+        <v>34.274689074747</v>
+      </c>
+      <c r="H107" t="n">
+        <v>162.575815294199</v>
+      </c>
+      <c r="I107" t="n">
+        <v>35.6999485780276</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D108" t="n">
+        <v>70.0025357763321</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.30026601590339</v>
+      </c>
+      <c r="F108" t="n">
+        <v>37.7665968369065</v>
+      </c>
+      <c r="G108" t="n">
+        <v>25.0790407864003</v>
+      </c>
+      <c r="H108" t="n">
+        <v>107.769132613239</v>
+      </c>
+      <c r="I108" t="n">
+        <v>25.8582992216634</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D109" t="n">
+        <v>99.0461410452359</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.91420617143778</v>
+      </c>
+      <c r="F109" t="n">
+        <v>59.027792093239</v>
+      </c>
+      <c r="G109" t="n">
+        <v>39.1976118957812</v>
+      </c>
+      <c r="H109" t="n">
+        <v>158.073933138475</v>
+      </c>
+      <c r="I109" t="n">
+        <v>40.198455816103</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D110" t="n">
+        <v>118</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>34.3629405787655</v>
+      </c>
+      <c r="G110" t="n">
+        <v>22.8188309377494</v>
+      </c>
+      <c r="H110" t="n">
+        <v>152.362940578766</v>
+      </c>
+      <c r="I110" t="n">
+        <v>22.8188309377494</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D111" t="n">
+        <v>242</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>76.6988293786557</v>
+      </c>
+      <c r="G111" t="n">
+        <v>50.9321260415166</v>
+      </c>
+      <c r="H111" t="n">
+        <v>318.698829378656</v>
+      </c>
+      <c r="I111" t="n">
+        <v>50.9321260415166</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D112" t="n">
+        <v>211</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>55.7640121196792</v>
+      </c>
+      <c r="G112" t="n">
+        <v>37.0302873833762</v>
+      </c>
+      <c r="H112" t="n">
+        <v>266.764012119679</v>
+      </c>
+      <c r="I112" t="n">
+        <v>37.0302873833762</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D113" t="n">
+        <v>249</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>86.2104167301729</v>
+      </c>
+      <c r="G113" t="n">
+        <v>57.2483289062396</v>
+      </c>
+      <c r="H113" t="n">
+        <v>335.210416730173</v>
+      </c>
+      <c r="I113" t="n">
+        <v>57.2483289062396</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D114" t="n">
+        <v>317</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>59.027792093239</v>
+      </c>
+      <c r="G114" t="n">
+        <v>39.1976118957812</v>
+      </c>
+      <c r="H114" t="n">
+        <v>376.027792093239</v>
+      </c>
+      <c r="I114" t="n">
+        <v>39.1976118957812</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D115" t="n">
+        <v>163</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>51.9189508261432</v>
+      </c>
+      <c r="G115" t="n">
+        <v>39.2764129994525</v>
+      </c>
+      <c r="H115" t="n">
+        <v>214.918950826143</v>
+      </c>
+      <c r="I115" t="n">
+        <v>39.2764129994525</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D116" t="n">
+        <v>335</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>181.815391929108</v>
+      </c>
+      <c r="G116" t="n">
+        <v>113.703973707496</v>
+      </c>
+      <c r="H116" t="n">
+        <v>516.815391929108</v>
+      </c>
+      <c r="I116" t="n">
+        <v>113.703973707496</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D117" t="n">
+        <v>279</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>64.9793249583407</v>
+      </c>
+      <c r="G117" t="n">
+        <v>45.935409216011</v>
+      </c>
+      <c r="H117" t="n">
+        <v>343.979324958341</v>
+      </c>
+      <c r="I117" t="n">
+        <v>45.935409216011</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D118" t="n">
+        <v>404</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>130.435860557479</v>
+      </c>
+      <c r="G118" t="n">
+        <v>86.8330799503126</v>
+      </c>
+      <c r="H118" t="n">
+        <v>534.435860557479</v>
+      </c>
+      <c r="I118" t="n">
+        <v>86.8330799503126</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D119" t="n">
+        <v>285</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>149.459608553298</v>
+      </c>
+      <c r="G119" t="n">
+        <v>139.466450289918</v>
+      </c>
+      <c r="H119" t="n">
+        <v>434.459608553298</v>
+      </c>
+      <c r="I119" t="n">
+        <v>139.466450289918</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D120" t="n">
+        <v>588</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>47.7091680034086</v>
+      </c>
+      <c r="G120" t="n">
+        <v>28.4029920534701</v>
+      </c>
+      <c r="H120" t="n">
+        <v>635.709168003409</v>
+      </c>
+      <c r="I120" t="n">
+        <v>28.4029920534701</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D121" t="n">
+        <v>493</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>161.314251729213</v>
+      </c>
+      <c r="G121" t="n">
+        <v>94.4516564822206</v>
+      </c>
+      <c r="H121" t="n">
+        <v>654.314251729213</v>
+      </c>
+      <c r="I121" t="n">
+        <v>94.4516564822206</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D122" t="n">
+        <v>540</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>111.278823516972</v>
+      </c>
+      <c r="G122" t="n">
+        <v>67.9928794162569</v>
+      </c>
+      <c r="H122" t="n">
+        <v>651.278823516972</v>
+      </c>
+      <c r="I122" t="n">
+        <v>67.9928794162569</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>731.119735561457</v>
+      </c>
+      <c r="G123" t="n">
+        <v>354.541088022985</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1768.11973556146</v>
+      </c>
+      <c r="I123" t="n">
+        <v>354.541088022985</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D124" t="n">
+        <v>455</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>120.26387719406</v>
+      </c>
+      <c r="G124" t="n">
+        <v>67.3664529377352</v>
+      </c>
+      <c r="H124" t="n">
+        <v>575.26387719406</v>
+      </c>
+      <c r="I124" t="n">
+        <v>67.3664529377352</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D125" t="n">
+        <v>754</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>190.16196864297</v>
+      </c>
+      <c r="G125" t="n">
+        <v>93.3697418682409</v>
+      </c>
+      <c r="H125" t="n">
+        <v>944.16196864297</v>
+      </c>
+      <c r="I125" t="n">
+        <v>93.3697418682409</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>241.832816627288</v>
+      </c>
+      <c r="G126" t="n">
+        <v>171.344817964892</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1312.83281662729</v>
+      </c>
+      <c r="I126" t="n">
+        <v>171.344817964892</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9169,7 +11437,7 @@
         <v>0.397994974842648</v>
       </c>
       <c r="F2" t="n">
-        <v>411.552007740248</v>
+        <v>9.32773201002295</v>
       </c>
       <c r="G2" t="n">
         <v>13.9206421206883</v>
@@ -9198,7 +11466,7 @@
         <v>10.1488718584875</v>
       </c>
       <c r="F3" t="n">
-        <v>1068.96625387077</v>
+        <v>24.227875350709</v>
       </c>
       <c r="G3" t="n">
         <v>36.1575120017877</v>
@@ -9227,7 +11495,7 @@
         <v>11.3428567830155</v>
       </c>
       <c r="F4" t="n">
-        <v>486.379645511202</v>
+        <v>11.0236832845726</v>
       </c>
       <c r="G4" t="n">
         <v>16.4516679608134</v>
@@ -9256,7 +11524,7 @@
         <v>2.38796984905589</v>
       </c>
       <c r="F5" t="n">
-        <v>378.414053870254</v>
+        <v>8.57666787415097</v>
       </c>
       <c r="G5" t="n">
         <v>12.7997592486328</v>
@@ -9285,7 +11553,7 @@
         <v>8.35789447169561</v>
       </c>
       <c r="F6" t="n">
-        <v>437.207197833147</v>
+        <v>9.90920101843997</v>
       </c>
       <c r="G6" t="n">
         <v>14.7884224087312</v>
@@ -9314,7 +11582,7 @@
         <v>23.2827060282949</v>
       </c>
       <c r="F7" t="n">
-        <v>405.138210217023</v>
+        <v>9.18236475791869</v>
       </c>
       <c r="G7" t="n">
         <v>13.7036970486775</v>
@@ -9343,7 +11611,7 @@
         <v>10.1488718584875</v>
       </c>
       <c r="F8" t="n">
-        <v>762.172939009862</v>
+        <v>17.2744751250555</v>
       </c>
       <c r="G8" t="n">
         <v>25.7803060572746</v>
@@ -9372,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>450.034792879596</v>
+        <v>10.1999355226485</v>
       </c>
       <c r="G9" t="n">
         <v>15.2223125527526</v>
@@ -9401,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1515.25966486182</v>
+        <v>34.3430133096299</v>
       </c>
       <c r="G10" t="n">
         <v>51.2532732625341</v>
@@ -9430,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>794.77640975292</v>
+        <v>18.0134253232521</v>
       </c>
       <c r="G11" t="n">
         <v>26.8831101733292</v>
@@ -9459,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>835.931610526945</v>
+        <v>18.9461985242544</v>
       </c>
       <c r="G12" t="n">
         <v>28.275174385398</v>
@@ -9488,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>750.948793344219</v>
+        <v>17.020082433873</v>
       </c>
       <c r="G13" t="n">
         <v>25.4006521812559</v>
@@ -9517,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2788.84615384615</v>
+        <v>63.2085594311538</v>
       </c>
       <c r="G14" t="n">
         <v>117.243954165208</v>
@@ -9546,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>723.996710526316</v>
+        <v>16.4092196488322</v>
       </c>
       <c r="G15" t="n">
         <v>29.4905261839969</v>
@@ -9575,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>672.377867746289</v>
+        <v>15.2392903979379</v>
       </c>
       <c r="G16" t="n">
         <v>28.1819235305167</v>
@@ -9604,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2052.37384506041</v>
+        <v>46.5165832046837</v>
       </c>
       <c r="G17" t="n">
         <v>77.3275247614308</v>
@@ -9633,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>423.373228346457</v>
+        <v>9.59565726800315</v>
       </c>
       <c r="G18" t="n">
         <v>24.1961933883133</v>
@@ -9662,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>989.829278350515</v>
+        <v>22.4342539229097</v>
       </c>
       <c r="G19" t="n">
         <v>47.1930669378366</v>
@@ -9691,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>143.314318311466</v>
+        <v>3.24818620555049</v>
       </c>
       <c r="G20" t="n">
         <v>10.5133379918295</v>
@@ -9720,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>577.035120147874</v>
+        <v>13.0783688571091</v>
       </c>
       <c r="G21" t="n">
         <v>27.0675373364219</v>
@@ -9747,7 +12015,7 @@
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
-        <v>2090.56847027388</v>
+        <v>47.9416018667789</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="n">
@@ -9774,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>657.073512252042</v>
+        <v>20.5327550486484</v>
       </c>
       <c r="G23" t="n">
         <v>57.5419762086794</v>
@@ -9803,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>181.814952575786</v>
+        <v>5.73361337716224</v>
       </c>
       <c r="G24" t="n">
         <v>14.4958192366238</v>
@@ -9832,13 +12100,17 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>235.502976190476</v>
+        <v>7.9844285771389</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25"/>
-      <c r="I25"/>
+        <v>18.0323024283135</v>
+      </c>
+      <c r="H25" t="n">
+        <v>46.9844285771389</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18.0323024283135</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -9857,7 +12129,7 @@
         <v>40.2311260095961</v>
       </c>
       <c r="F26" t="n">
-        <v>162.859496047015</v>
+        <v>0.557622120052193</v>
       </c>
       <c r="G26" t="n">
         <v>1.74575969502836</v>
@@ -9886,7 +12158,7 @@
         <v>48.0958574099683</v>
       </c>
       <c r="F27" t="n">
-        <v>448.051240276811</v>
+        <v>1.53410325194083</v>
       </c>
       <c r="G27" t="n">
         <v>4.80285040521627</v>
@@ -9915,7 +12187,7 @@
         <v>49.3058160869486</v>
       </c>
       <c r="F28" t="n">
-        <v>205.638257681484</v>
+        <v>0.704094289835488</v>
       </c>
       <c r="G28" t="n">
         <v>2.20432330155655</v>
@@ -9944,7 +12216,7 @@
         <v>12.4020764390484</v>
       </c>
       <c r="F29" t="n">
-        <v>276.185689148855</v>
+        <v>0.945644885618465</v>
       </c>
       <c r="G29" t="n">
         <v>2.9605510035504</v>
@@ -9973,7 +12245,7 @@
         <v>13.3095454467837</v>
       </c>
       <c r="F30" t="n">
-        <v>329.471515044422</v>
+        <v>1.12809267605029</v>
       </c>
       <c r="G30" t="n">
         <v>3.53174426782235</v>
@@ -10002,7 +12274,7 @@
         <v>9.98215908508775</v>
       </c>
       <c r="F31" t="n">
-        <v>169.98928965276</v>
+        <v>0.582034148349409</v>
       </c>
       <c r="G31" t="n">
         <v>1.82218696278306</v>
@@ -10031,7 +12303,7 @@
         <v>14.2170144545189</v>
       </c>
       <c r="F32" t="n">
-        <v>279.187707509169</v>
+        <v>0.955923634375188</v>
       </c>
       <c r="G32" t="n">
         <v>2.99273090576291</v>
@@ -10060,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>308.457386522227</v>
+        <v>1.05614143475323</v>
       </c>
       <c r="G33" t="n">
         <v>3.30648495233482</v>
@@ -10089,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>998.546357099325</v>
+        <v>3.4189688052048</v>
       </c>
       <c r="G34" t="n">
         <v>10.7038399734343</v>
@@ -10118,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>338.477570125363</v>
+        <v>1.15892892232046</v>
       </c>
       <c r="G35" t="n">
         <v>3.62828397445987</v>
@@ -10147,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>239.035711939974</v>
+        <v>0.818445369754025</v>
       </c>
       <c r="G36" t="n">
         <v>2.56232471367066</v>
@@ -10176,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>453.680024702399</v>
+        <v>1.55337590585968</v>
       </c>
       <c r="G37" t="n">
         <v>4.86318772186472</v>
@@ -10205,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>71.087542087542</v>
+        <v>0.243399905380471</v>
       </c>
       <c r="G38" t="n">
         <v>0.79328322389166</v>
@@ -10234,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>458.470588235294</v>
+        <v>1.56977853670588</v>
       </c>
       <c r="G39" t="n">
         <v>7.52257077231414</v>
@@ -10263,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>47.3701605288007</v>
+        <v>0.162192871661945</v>
       </c>
       <c r="G40" t="n">
         <v>1.56140342616843</v>
@@ -10292,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>34.0652104079666</v>
+        <v>0.116637440915515</v>
       </c>
       <c r="G41" t="n">
         <v>0.373586585244133</v>
@@ -10321,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>51.5452898550725</v>
+        <v>0.176488289018116</v>
       </c>
       <c r="G42" t="n">
         <v>1.56607951480562</v>
@@ -10350,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>738.602917341977</v>
+        <v>2.52893650442139</v>
       </c>
       <c r="G43" t="n">
         <v>8.18048172333495</v>
@@ -10379,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>808.650485436893</v>
+        <v>2.76877559500971</v>
       </c>
       <c r="G44" t="n">
         <v>11.2472718616424</v>
@@ -10408,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>218.115746971736</v>
+        <v>0.746816539380889</v>
       </c>
       <c r="G45" t="n">
         <v>2.8628359261128</v>
@@ -10435,7 +12707,7 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>437.387892376682</v>
+        <v>1.39062144248879</v>
       </c>
       <c r="G46" t="n">
         <v>8.64515239546643</v>
@@ -10464,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>60.5736677115987</v>
+        <v>0.203571953366642</v>
       </c>
       <c r="G47" t="n">
         <v>0.845772113511783</v>
@@ -10493,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>85.1911846754696</v>
+        <v>0.360609064565917</v>
       </c>
       <c r="G48" t="n">
         <v>1.00222136637616</v>
@@ -10522,13 +12794,17 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>10.3526315789474</v>
+        <v>0.0754497400772693</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49"/>
-      <c r="I49"/>
+        <v>0.518211784740663</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.07544974007727</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.518211784740663</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -10541,22 +12817,22 @@
         <v>1999</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>28.12802652</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>39.3547964039963</v>
       </c>
       <c r="F50" t="n">
-        <v>48.2854561531142</v>
+        <v>83.8074469878438</v>
       </c>
       <c r="G50" t="n">
-        <v>1.81759347534404</v>
+        <v>62.7156373949296</v>
       </c>
       <c r="H50" t="n">
-        <v>0.844925275626251</v>
+        <v>111.935473507844</v>
       </c>
       <c r="I50" t="n">
-        <v>1.81759347534404</v>
+        <v>74.0408750208444</v>
       </c>
     </row>
     <row r="51">
@@ -10570,22 +12846,22 @@
         <v>2000</v>
       </c>
       <c r="D51" t="n">
-        <v>12.12636305</v>
+        <v>44.493423768</v>
       </c>
       <c r="E51" t="n">
-        <v>10.4703107344052</v>
+        <v>62.2521324935941</v>
       </c>
       <c r="F51" t="n">
-        <v>38.1002427458166</v>
+        <v>18.8719829049591</v>
       </c>
       <c r="G51" t="n">
-        <v>1.43419485163866</v>
+        <v>24.4820880214263</v>
       </c>
       <c r="H51" t="n">
-        <v>12.7930619002988</v>
+        <v>63.3654066729591</v>
       </c>
       <c r="I51" t="n">
-        <v>10.5680803246127</v>
+        <v>66.8932031965047</v>
       </c>
     </row>
     <row r="52">
@@ -10599,22 +12875,22 @@
         <v>2001</v>
       </c>
       <c r="D52" t="n">
-        <v>11.641308528</v>
+        <v>26.593770528</v>
       </c>
       <c r="E52" t="n">
-        <v>10.051498305029</v>
+        <v>37.2081711455965</v>
       </c>
       <c r="F52" t="n">
-        <v>16.2208954264368</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.610597808123389</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>11.9251506127807</v>
+        <v>26.593770528</v>
       </c>
       <c r="I52" t="n">
-        <v>10.0700272025097</v>
+        <v>37.2081711455965</v>
       </c>
     </row>
     <row r="53">
@@ -10628,22 +12904,22 @@
         <v>2002</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>33.497922492</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>46.8679848083956</v>
       </c>
       <c r="F53" t="n">
-        <v>23.3882678241647</v>
+        <v>227.45006322759</v>
       </c>
       <c r="G53" t="n">
-        <v>0.880396839619771</v>
+        <v>153.594681502482</v>
       </c>
       <c r="H53" t="n">
-        <v>0.409260680381465</v>
+        <v>260.94798571959</v>
       </c>
       <c r="I53" t="n">
-        <v>0.880396839619771</v>
+        <v>160.586220410871</v>
       </c>
     </row>
     <row r="54">
@@ -10657,22 +12933,22 @@
         <v>2003</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>24.29238654</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>33.9882332579968</v>
       </c>
       <c r="F54" t="n">
-        <v>51.68052728888</v>
+        <v>29.9459911795713</v>
       </c>
       <c r="G54" t="n">
-        <v>1.94539301657917</v>
+        <v>38.8480976463927</v>
       </c>
       <c r="H54" t="n">
-        <v>0.904334084068722</v>
+        <v>54.2383777195713</v>
       </c>
       <c r="I54" t="n">
-        <v>1.94539301657917</v>
+        <v>51.617581217485</v>
       </c>
     </row>
     <row r="55">
@@ -10686,22 +12962,22 @@
         <v>2004</v>
       </c>
       <c r="D55" t="n">
-        <v>0.485054522</v>
+        <v>40.402074456</v>
       </c>
       <c r="E55" t="n">
-        <v>0.418812429376207</v>
+        <v>56.5277984711947</v>
       </c>
       <c r="F55" t="n">
-        <v>9.80798328110131</v>
+        <v>133.505451941337</v>
       </c>
       <c r="G55" t="n">
-        <v>0.369198674679259</v>
+        <v>103.462485633536</v>
       </c>
       <c r="H55" t="n">
-        <v>0.656679968611582</v>
+        <v>173.907526397337</v>
       </c>
       <c r="I55" t="n">
-        <v>0.55831130418873</v>
+        <v>117.89774354698</v>
       </c>
     </row>
     <row r="56">
@@ -10715,22 +12991,22 @@
         <v>2005</v>
       </c>
       <c r="D56" t="n">
-        <v>1.940218088</v>
+        <v>50.886157068</v>
       </c>
       <c r="E56" t="n">
-        <v>1.67524971750483</v>
+        <v>71.1964044035933</v>
       </c>
       <c r="F56" t="n">
-        <v>42.2497741339749</v>
+        <v>42.0724088430186</v>
       </c>
       <c r="G56" t="n">
-        <v>1.59039429092604</v>
+        <v>54.5793593908031</v>
       </c>
       <c r="H56" t="n">
-        <v>2.67952770417297</v>
+        <v>92.9585659110186</v>
       </c>
       <c r="I56" t="n">
-        <v>2.30993844433356</v>
+        <v>89.7097233944596</v>
       </c>
     </row>
     <row r="57">
@@ -10744,22 +13020,22 @@
         <v>2006</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>30.1784100956963</v>
+        <v>115.039965546837</v>
       </c>
       <c r="G57" t="n">
-        <v>1.13599592209003</v>
+        <v>93.9569353466814</v>
       </c>
       <c r="H57" t="n">
-        <v>1.52807829726641</v>
+        <v>115.039965546837</v>
       </c>
       <c r="I57" t="n">
-        <v>1.13599592209003</v>
+        <v>93.9569353466814</v>
       </c>
     </row>
     <row r="58">
@@ -10773,22 +13049,22 @@
         <v>2007</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>178.807079817001</v>
+        <v>36.5396718536694</v>
       </c>
       <c r="G58" t="n">
-        <v>6.73077583838341</v>
+        <v>47.4018280367223</v>
       </c>
       <c r="H58" t="n">
-        <v>5.12886391130346</v>
+        <v>60.5396718536694</v>
       </c>
       <c r="I58" t="n">
-        <v>6.73077583838341</v>
+        <v>47.4018280367223</v>
       </c>
     </row>
     <row r="59">
@@ -10802,22 +13078,22 @@
         <v>2008</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>310.08316373328</v>
+        <v>37.440321033778</v>
       </c>
       <c r="G59" t="n">
-        <v>11.672358099475</v>
+        <v>48.570281533456</v>
       </c>
       <c r="H59" t="n">
-        <v>5.42600450441233</v>
+        <v>45.440321033778</v>
       </c>
       <c r="I59" t="n">
-        <v>11.672358099475</v>
+        <v>48.570281533456</v>
       </c>
     </row>
     <row r="60">
@@ -10831,22 +13107,22 @@
         <v>2009</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>127.503782654317</v>
+        <v>243.254787630313</v>
       </c>
       <c r="G60" t="n">
-        <v>4.79958277083036</v>
+        <v>174.725978986764</v>
       </c>
       <c r="H60" t="n">
-        <v>5.23113080595057</v>
+        <v>244.254787630313</v>
       </c>
       <c r="I60" t="n">
-        <v>4.79958277083036</v>
+        <v>174.725978986764</v>
       </c>
     </row>
     <row r="61">
@@ -10860,22 +13136,22 @@
         <v>2010</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>72.050954103475</v>
+        <v>53.0002559188629</v>
       </c>
       <c r="G61" t="n">
-        <v>2.71219026398994</v>
+        <v>63.0762646386755</v>
       </c>
       <c r="H61" t="n">
-        <v>1.26078693472355</v>
+        <v>58.0002559188629</v>
       </c>
       <c r="I61" t="n">
-        <v>2.71219026398994</v>
+        <v>63.0762646386755</v>
       </c>
     </row>
     <row r="62">
@@ -10889,22 +13165,22 @@
         <v>2011</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>110.56393551127</v>
       </c>
       <c r="G62" t="n">
-        <v>1.49329939086063</v>
+        <v>99.8557406649407</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>113.56393551127</v>
       </c>
       <c r="I62" t="n">
-        <v>1.49329939086063</v>
+        <v>99.8557406649407</v>
       </c>
     </row>
     <row r="63">
@@ -10918,22 +13194,22 @@
         <v>2012</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>93.4117647058824</v>
+        <v>55.5058410404065</v>
       </c>
       <c r="G63" t="n">
-        <v>2.54915887252591</v>
+        <v>88.9780673357312</v>
       </c>
       <c r="H63" t="n">
-        <v>5.63457006164706</v>
+        <v>58.5058410404065</v>
       </c>
       <c r="I63" t="n">
-        <v>2.54915887252591</v>
+        <v>88.9780673357312</v>
       </c>
     </row>
     <row r="64">
@@ -10947,22 +13223,22 @@
         <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>38.7328467153285</v>
+        <v>37.4351129594553</v>
       </c>
       <c r="G64" t="n">
-        <v>1.92090448328186</v>
+        <v>30.8103006474577</v>
       </c>
       <c r="H64" t="n">
-        <v>7.67776849995912</v>
+        <v>46.4351129594553</v>
       </c>
       <c r="I64" t="n">
-        <v>1.92090448328186</v>
+        <v>30.8103006474577</v>
       </c>
     </row>
     <row r="65">
@@ -10976,22 +13252,22 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>443.778523489933</v>
+        <v>99.9421815412715</v>
       </c>
       <c r="G65" t="n">
-        <v>16.3349892951365</v>
+        <v>105.952998546685</v>
       </c>
       <c r="H65" t="n">
-        <v>19.7654789071007</v>
+        <v>100.942181541271</v>
       </c>
       <c r="I65" t="n">
-        <v>16.3349892951365</v>
+        <v>105.952998546685</v>
       </c>
     </row>
     <row r="66">
@@ -11005,22 +13281,22 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>4.89603174603175</v>
+        <v>53.0349582887462</v>
       </c>
       <c r="G66" t="n">
-        <v>0.590701657340173</v>
+        <v>58.2615977298262</v>
       </c>
       <c r="H66" t="n">
-        <v>1.0856734367254</v>
+        <v>53.0349582887462</v>
       </c>
       <c r="I66" t="n">
-        <v>0.590701657340173</v>
+        <v>58.2615977298262</v>
       </c>
     </row>
     <row r="67">
@@ -11034,22 +13310,22 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>345.072933549433</v>
+        <v>21.7652039077362</v>
       </c>
       <c r="G67" t="n">
-        <v>14.9238352791204</v>
+        <v>27.0001842236134</v>
       </c>
       <c r="H67" t="n">
-        <v>17.0382746010697</v>
+        <v>28.7652039077362</v>
       </c>
       <c r="I67" t="n">
-        <v>14.9238352791204</v>
+        <v>27.0001842236134</v>
       </c>
     </row>
     <row r="68">
@@ -11063,22 +13339,22 @@
         <v>2017</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>222.514563106796</v>
+        <v>11.2238346372906</v>
       </c>
       <c r="G68" t="n">
-        <v>12.2217243779605</v>
+        <v>13.6471280029525</v>
       </c>
       <c r="H68" t="n">
-        <v>5.89368131819417</v>
+        <v>19.2238346372906</v>
       </c>
       <c r="I68" t="n">
-        <v>12.2217243779605</v>
+        <v>13.6471280029525</v>
       </c>
     </row>
     <row r="69">
@@ -11092,22 +13368,22 @@
         <v>2018</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>38.7113402061856</v>
+        <v>13.1061420806017</v>
       </c>
       <c r="G69" t="n">
-        <v>1.41141674543076</v>
+        <v>13.8793955127837</v>
       </c>
       <c r="H69" t="n">
-        <v>2.67739216731959</v>
+        <v>33.1061420806017</v>
       </c>
       <c r="I69" t="n">
-        <v>1.41141674543076</v>
+        <v>13.8793955127837</v>
       </c>
     </row>
     <row r="70">
@@ -11121,20 +13397,20 @@
         <v>2019</v>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>20.0874439461883</v>
+        <v>137.516186529098</v>
       </c>
       <c r="G70" t="n">
-        <v>5.39116620277262</v>
+        <v>108.647860290327</v>
       </c>
       <c r="H70" t="n">
-        <v>8.69666931607623</v>
+        <v>153.516186529098</v>
       </c>
       <c r="I70" t="n">
-        <v>5.39116620277262</v>
+        <v>108.647860290327</v>
       </c>
     </row>
     <row r="71">
@@ -11148,22 +13424,22 @@
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>7.6833855799373</v>
+        <v>51.3462052216151</v>
       </c>
       <c r="G71" t="n">
-        <v>1.37769989179693</v>
+        <v>42.3219552141144</v>
       </c>
       <c r="H71" t="n">
-        <v>0.207257456146893</v>
+        <v>52.3462052216151</v>
       </c>
       <c r="I71" t="n">
-        <v>1.37769989179693</v>
+        <v>42.3219552141144</v>
       </c>
     </row>
     <row r="72">
@@ -11177,22 +13453,22 @@
         <v>2021</v>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>12.6618932490236</v>
+        <v>5.23675480293127</v>
       </c>
       <c r="G72" t="n">
-        <v>1.52934177681441</v>
+        <v>8.16187234189246</v>
       </c>
       <c r="H72" t="n">
-        <v>6.362395411322</v>
+        <v>18.2367548029313</v>
       </c>
       <c r="I72" t="n">
-        <v>1.52934177681441</v>
+        <v>8.16187234189246</v>
       </c>
     </row>
     <row r="73">
@@ -11200,28 +13476,28 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>1999</v>
+        <v>2022</v>
       </c>
       <c r="D73" t="n">
-        <v>46.051465836</v>
+        <v>14</v>
       </c>
       <c r="E73" t="n">
-        <v>18.3879674317201</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>118.827489751804</v>
+        <v>16.8858239845491</v>
       </c>
       <c r="G73" t="n">
-        <v>12.4242889066404</v>
+        <v>23.4419369349375</v>
       </c>
       <c r="H73" t="n">
-        <v>53.2117534634109</v>
+        <v>30.8858239845491</v>
       </c>
       <c r="I73" t="n">
-        <v>22.1918971948247</v>
+        <v>23.4419369349375</v>
       </c>
     </row>
     <row r="74">
@@ -11232,25 +13508,25 @@
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D74" t="n">
-        <v>74.771734852</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>29.8557320665563</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>164.472335021545</v>
+        <v>0.844925275626251</v>
       </c>
       <c r="G74" t="n">
-        <v>17.1967935342705</v>
+        <v>1.81759347534404</v>
       </c>
       <c r="H74" t="n">
-        <v>84.68248217121</v>
+        <v>0.844925275626251</v>
       </c>
       <c r="I74" t="n">
-        <v>34.4542369686274</v>
+        <v>1.81759347534404</v>
       </c>
     </row>
     <row r="75">
@@ -11261,25 +13537,25 @@
         <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D75" t="n">
-        <v>80.218682424</v>
+        <v>12.12636305</v>
       </c>
       <c r="E75" t="n">
-        <v>32.030652945577</v>
+        <v>10.4703107344052</v>
       </c>
       <c r="F75" t="n">
-        <v>162.96341451676</v>
+        <v>0.666698850298839</v>
       </c>
       <c r="G75" t="n">
-        <v>17.0390247862497</v>
+        <v>1.43419485163866</v>
       </c>
       <c r="H75" t="n">
-        <v>90.0385054558778</v>
+        <v>12.7930619002988</v>
       </c>
       <c r="I75" t="n">
-        <v>36.280726202578</v>
+        <v>10.5680803246127</v>
       </c>
     </row>
     <row r="76">
@@ -11290,25 +13566,25 @@
         <v>13</v>
       </c>
       <c r="C76" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D76" t="n">
-        <v>54.964652772</v>
+        <v>11.641308528</v>
       </c>
       <c r="E76" t="n">
-        <v>21.9469288701176</v>
+        <v>10.051498305029</v>
       </c>
       <c r="F76" t="n">
-        <v>155.04158186664</v>
+        <v>0.283842084780694</v>
       </c>
       <c r="G76" t="n">
-        <v>16.2107388591403</v>
+        <v>0.610597808123389</v>
       </c>
       <c r="H76" t="n">
-        <v>64.3071232953837</v>
+        <v>11.9251506127807</v>
       </c>
       <c r="I76" t="n">
-        <v>27.2847162563447</v>
+        <v>10.0700272025097</v>
       </c>
     </row>
     <row r="77">
@@ -11319,25 +13595,25 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D77" t="n">
-        <v>26.739560808</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>10.6768843151923</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>244.822351901337</v>
+        <v>0.409260680381465</v>
       </c>
       <c r="G77" t="n">
-        <v>25.5979793663798</v>
+        <v>0.880396839619771</v>
       </c>
       <c r="H77" t="n">
-        <v>41.4920264276497</v>
+        <v>0.409260680381465</v>
       </c>
       <c r="I77" t="n">
-        <v>27.7353998767208</v>
+        <v>0.880396839619771</v>
       </c>
     </row>
     <row r="78">
@@ -11348,25 +13624,25 @@
         <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D78" t="n">
-        <v>29.71062312</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>11.8632047946581</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>119.959180130393</v>
+        <v>0.904334084068722</v>
       </c>
       <c r="G78" t="n">
-        <v>12.542615467656</v>
+        <v>1.94539301657917</v>
       </c>
       <c r="H78" t="n">
-        <v>36.93910396291</v>
+        <v>0.904334084068722</v>
       </c>
       <c r="I78" t="n">
-        <v>17.2642066359704</v>
+        <v>1.94539301657917</v>
       </c>
     </row>
     <row r="79">
@@ -11377,25 +13653,25 @@
         <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D79" t="n">
-        <v>16.836019768</v>
+        <v>0.485054522</v>
       </c>
       <c r="E79" t="n">
-        <v>6.72248271697295</v>
+        <v>0.418812429376207</v>
       </c>
       <c r="F79" t="n">
-        <v>158.813883128602</v>
+        <v>0.171625446611582</v>
       </c>
       <c r="G79" t="n">
-        <v>16.6051607291924</v>
+        <v>0.369198674679259</v>
       </c>
       <c r="H79" t="n">
-        <v>26.4058010097142</v>
+        <v>0.656679968611582</v>
       </c>
       <c r="I79" t="n">
-        <v>17.9143276938409</v>
+        <v>0.55831130418873</v>
       </c>
     </row>
     <row r="80">
@@ -11406,25 +13682,25 @@
         <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>1.940218088</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1.67524971750483</v>
       </c>
       <c r="F80" t="n">
-        <v>206.344879029324</v>
+        <v>0.73930961617297</v>
       </c>
       <c r="G80" t="n">
-        <v>21.5748762918486</v>
+        <v>1.59039429092604</v>
       </c>
       <c r="H80" t="n">
-        <v>31.4338962926786</v>
+        <v>2.67952770417297</v>
       </c>
       <c r="I80" t="n">
-        <v>21.5748762918486</v>
+        <v>2.30993844433356</v>
       </c>
     </row>
     <row r="81">
@@ -11435,25 +13711,25 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>149.383129973697</v>
+        <v>0.528078297266407</v>
       </c>
       <c r="G81" t="n">
-        <v>15.6191060540622</v>
+        <v>1.13599592209003</v>
       </c>
       <c r="H81" t="n">
-        <v>32.001504445888</v>
+        <v>1.52807829726641</v>
       </c>
       <c r="I81" t="n">
-        <v>15.6191060540622</v>
+        <v>1.13599592209003</v>
       </c>
     </row>
     <row r="82">
@@ -11464,25 +13740,25 @@
         <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>216.907322562817</v>
+        <v>3.12886391130346</v>
       </c>
       <c r="G82" t="n">
-        <v>22.6792575279944</v>
+        <v>6.73077583838341</v>
       </c>
       <c r="H82" t="n">
-        <v>19.070366304004</v>
+        <v>5.12886391130346</v>
       </c>
       <c r="I82" t="n">
-        <v>22.6792575279944</v>
+        <v>6.73077583838341</v>
       </c>
     </row>
     <row r="83">
@@ -11493,25 +13769,25 @@
         <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>262.174937706362</v>
+        <v>5.42600450441233</v>
       </c>
       <c r="G83" t="n">
-        <v>27.4123199686193</v>
+        <v>11.672358099475</v>
       </c>
       <c r="H83" t="n">
-        <v>35.79809492397</v>
+        <v>5.42600450441233</v>
       </c>
       <c r="I83" t="n">
-        <v>27.4123199686193</v>
+        <v>11.672358099475</v>
       </c>
     </row>
     <row r="84">
@@ -11522,25 +13798,25 @@
         <v>13</v>
       </c>
       <c r="C84" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D84" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>198.8002765054</v>
+        <v>2.23113080595057</v>
       </c>
       <c r="G84" t="n">
-        <v>20.7860325517444</v>
+        <v>4.79958277083036</v>
       </c>
       <c r="H84" t="n">
-        <v>39.9792748560176</v>
+        <v>5.23113080595057</v>
       </c>
       <c r="I84" t="n">
-        <v>20.7860325517444</v>
+        <v>4.79958277083036</v>
       </c>
     </row>
     <row r="85">
@@ -11551,25 +13827,25 @@
         <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D85" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1.26078693472355</v>
       </c>
       <c r="G85" t="n">
-        <v>7.49847449592896</v>
+        <v>2.71219026398994</v>
       </c>
       <c r="H85" t="n">
-        <v>28</v>
+        <v>1.26078693472355</v>
       </c>
       <c r="I85" t="n">
-        <v>7.49847449592896</v>
+        <v>2.71219026398994</v>
       </c>
     </row>
     <row r="86">
@@ -11580,25 +13856,25 @@
         <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D86" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>439.174714661984</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>31.8234393730856</v>
+        <v>1.49329939086063</v>
       </c>
       <c r="H86" t="n">
-        <v>100.463718809798</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>31.8234393730856</v>
+        <v>1.49329939086063</v>
       </c>
     </row>
     <row r="87">
@@ -11609,25 +13885,25 @@
         <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D87" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>183.258394160584</v>
+        <v>1.63457006164706</v>
       </c>
       <c r="G87" t="n">
-        <v>25.7498511021157</v>
+        <v>2.54915887252591</v>
       </c>
       <c r="H87" t="n">
-        <v>67.0427546274686</v>
+        <v>5.63457006164706</v>
       </c>
       <c r="I87" t="n">
-        <v>25.7498511021157</v>
+        <v>2.54915887252591</v>
       </c>
     </row>
     <row r="88">
@@ -11638,25 +13914,25 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D88" t="n">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2104.6711409396</v>
+        <v>0.677768499959124</v>
       </c>
       <c r="G88" t="n">
-        <v>214.713610600109</v>
+        <v>1.92090448328186</v>
       </c>
       <c r="H88" t="n">
-        <v>257.822932654013</v>
+        <v>7.67776849995912</v>
       </c>
       <c r="I88" t="n">
-        <v>214.713610600109</v>
+        <v>1.92090448328186</v>
       </c>
     </row>
     <row r="89">
@@ -11667,25 +13943,25 @@
         <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>153.040476190476</v>
+        <v>7.76547890710067</v>
       </c>
       <c r="G89" t="n">
-        <v>53.449811566556</v>
+        <v>16.3349892951365</v>
       </c>
       <c r="H89" t="n">
-        <v>65.2218882217286</v>
+        <v>19.7654789071007</v>
       </c>
       <c r="I89" t="n">
-        <v>53.449811566556</v>
+        <v>16.3349892951365</v>
       </c>
     </row>
     <row r="90">
@@ -11696,25 +13972,25 @@
         <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1506.63587628866</v>
+        <v>0.0856734367253968</v>
       </c>
       <c r="G90" t="n">
-        <v>154.015483938329</v>
+        <v>0.590701657340173</v>
       </c>
       <c r="H90" t="n">
-        <v>270.78662055839</v>
+        <v>1.0856734367254</v>
       </c>
       <c r="I90" t="n">
-        <v>154.015483938329</v>
+        <v>0.590701657340173</v>
       </c>
     </row>
     <row r="91">
@@ -11725,25 +14001,25 @@
         <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1291.66990291262</v>
+        <v>6.03827460106969</v>
       </c>
       <c r="G91" t="n">
-        <v>201.985050382691</v>
+        <v>14.9238352791204</v>
       </c>
       <c r="H91" t="n">
-        <v>125.833235759184</v>
+        <v>17.0382746010697</v>
       </c>
       <c r="I91" t="n">
-        <v>201.985050382691</v>
+        <v>14.9238352791204</v>
       </c>
     </row>
     <row r="92">
@@ -11754,25 +14030,25 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>482.923969072165</v>
+        <v>3.89368131819417</v>
       </c>
       <c r="G92" t="n">
-        <v>48.7528135274653</v>
+        <v>12.2217243779605</v>
       </c>
       <c r="H92" t="n">
-        <v>116.099954294668</v>
+        <v>5.89368131819417</v>
       </c>
       <c r="I92" t="n">
-        <v>48.7528135274653</v>
+        <v>12.2217243779605</v>
       </c>
     </row>
     <row r="93">
@@ -11783,21 +14059,25 @@
         <v>13</v>
       </c>
       <c r="C93" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D93" t="n">
-        <v>48</v>
-      </c>
-      <c r="E93"/>
+        <v>2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
       <c r="F93" t="n">
-        <v>2986.52638610554</v>
-      </c>
-      <c r="G93"/>
+        <v>0.677392167319587</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.41141674543076</v>
+      </c>
       <c r="H93" t="n">
-        <v>223.711858826299</v>
+        <v>2.67739216731959</v>
       </c>
       <c r="I93" t="n">
-        <v>294.668607019649</v>
+        <v>1.41141674543076</v>
       </c>
     </row>
     <row r="94">
@@ -11808,25 +14088,23 @@
         <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D94" t="n">
-        <v>52</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E94"/>
       <c r="F94" t="n">
-        <v>254.802507836991</v>
+        <v>0.696669316076233</v>
       </c>
       <c r="G94" t="n">
-        <v>39.7414988997176</v>
+        <v>5.39116620277262</v>
       </c>
       <c r="H94" t="n">
-        <v>66.611287363914</v>
+        <v>8.69666931607623</v>
       </c>
       <c r="I94" t="n">
-        <v>39.7414988997176</v>
+        <v>5.39116620277262</v>
       </c>
     </row>
     <row r="95">
@@ -11837,25 +14115,25 @@
         <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D95" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>376.53766040543</v>
+        <v>0.207257456146893</v>
       </c>
       <c r="G95" t="n">
-        <v>37.1853949033687</v>
+        <v>1.37769989179693</v>
       </c>
       <c r="H95" t="n">
-        <v>166.356577700464</v>
+        <v>0.207257456146893</v>
       </c>
       <c r="I95" t="n">
-        <v>37.1853949033687</v>
+        <v>1.37769989179693</v>
       </c>
     </row>
     <row r="96">
@@ -11866,47 +14144,747 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D96" t="n">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>0.362395411322002</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96"/>
-      <c r="I96"/>
+        <v>1.52934177681441</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6.362395411322</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.52934177681441</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" t="n">
         <v>2022</v>
       </c>
       <c r="D97" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>549.263565891473</v>
+        <v>6.23769025303486</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97"/>
-      <c r="I97"/>
+        <v>24.1392655757427</v>
+      </c>
+      <c r="H97" t="n">
+        <v>46.2376902530349</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24.1392655757427</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>46.051465836</v>
+      </c>
+      <c r="E98" t="n">
+        <v>18.3879674317201</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.16028762741089</v>
+      </c>
+      <c r="G98" t="n">
+        <v>12.4242889066404</v>
+      </c>
+      <c r="H98" t="n">
+        <v>53.2117534634109</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22.1918971948247</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>74.771734852</v>
+      </c>
+      <c r="E99" t="n">
+        <v>29.8557320665563</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.91074731920999</v>
+      </c>
+      <c r="G99" t="n">
+        <v>17.1967935342705</v>
+      </c>
+      <c r="H99" t="n">
+        <v>84.68248217121</v>
+      </c>
+      <c r="I99" t="n">
+        <v>34.4542369686274</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>80.218682424</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32.030652945577</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9.81982303187779</v>
+      </c>
+      <c r="G100" t="n">
+        <v>17.0390247862497</v>
+      </c>
+      <c r="H100" t="n">
+        <v>90.0385054558778</v>
+      </c>
+      <c r="I100" t="n">
+        <v>36.280726202578</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D101" t="n">
+        <v>54.964652772</v>
+      </c>
+      <c r="E101" t="n">
+        <v>21.9469288701176</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9.34247052338373</v>
+      </c>
+      <c r="G101" t="n">
+        <v>16.2107388591403</v>
+      </c>
+      <c r="H101" t="n">
+        <v>64.3071232953837</v>
+      </c>
+      <c r="I101" t="n">
+        <v>27.2847162563447</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D102" t="n">
+        <v>26.739560808</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.6768843151923</v>
+      </c>
+      <c r="F102" t="n">
+        <v>14.7524656196497</v>
+      </c>
+      <c r="G102" t="n">
+        <v>25.5979793663798</v>
+      </c>
+      <c r="H102" t="n">
+        <v>41.4920264276497</v>
+      </c>
+      <c r="I102" t="n">
+        <v>27.7353998767208</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D103" t="n">
+        <v>29.71062312</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.8632047946581</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.22848084291004</v>
+      </c>
+      <c r="G103" t="n">
+        <v>12.542615467656</v>
+      </c>
+      <c r="H103" t="n">
+        <v>36.93910396291</v>
+      </c>
+      <c r="I103" t="n">
+        <v>17.2642066359704</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D104" t="n">
+        <v>16.836019768</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.72248271697295</v>
+      </c>
+      <c r="F104" t="n">
+        <v>9.56978124171423</v>
+      </c>
+      <c r="G104" t="n">
+        <v>16.6051607291924</v>
+      </c>
+      <c r="H104" t="n">
+        <v>26.4058010097142</v>
+      </c>
+      <c r="I104" t="n">
+        <v>17.9143276938409</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D105" t="n">
+        <v>19</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12.4338962926786</v>
+      </c>
+      <c r="G105" t="n">
+        <v>21.5748762918486</v>
+      </c>
+      <c r="H105" t="n">
+        <v>31.4338962926786</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.5748762918486</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D106" t="n">
+        <v>23</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9.00150444588797</v>
+      </c>
+      <c r="G106" t="n">
+        <v>15.6191060540622</v>
+      </c>
+      <c r="H106" t="n">
+        <v>32.001504445888</v>
+      </c>
+      <c r="I106" t="n">
+        <v>15.6191060540622</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>13.070366304004</v>
+      </c>
+      <c r="G107" t="n">
+        <v>22.6792575279944</v>
+      </c>
+      <c r="H107" t="n">
+        <v>19.070366304004</v>
+      </c>
+      <c r="I107" t="n">
+        <v>22.6792575279944</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D108" t="n">
+        <v>20</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15.79809492397</v>
+      </c>
+      <c r="G108" t="n">
+        <v>27.4123199686193</v>
+      </c>
+      <c r="H108" t="n">
+        <v>35.79809492397</v>
+      </c>
+      <c r="I108" t="n">
+        <v>27.4123199686193</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D109" t="n">
+        <v>28</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11.9792748560176</v>
+      </c>
+      <c r="G109" t="n">
+        <v>20.7860325517444</v>
+      </c>
+      <c r="H109" t="n">
+        <v>39.9792748560176</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20.7860325517444</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D110" t="n">
+        <v>28</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7.49847449592896</v>
+      </c>
+      <c r="H110" t="n">
+        <v>28</v>
+      </c>
+      <c r="I110" t="n">
+        <v>7.49847449592896</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D111" t="n">
+        <v>74</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>26.4637188097981</v>
+      </c>
+      <c r="G111" t="n">
+        <v>31.8234393730856</v>
+      </c>
+      <c r="H111" t="n">
+        <v>100.463718809798</v>
+      </c>
+      <c r="I111" t="n">
+        <v>31.8234393730856</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D112" t="n">
+        <v>56</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11.0427546274686</v>
+      </c>
+      <c r="G112" t="n">
+        <v>25.7498511021157</v>
+      </c>
+      <c r="H112" t="n">
+        <v>67.0427546274686</v>
+      </c>
+      <c r="I112" t="n">
+        <v>25.7498511021157</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D113" t="n">
+        <v>131</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>126.822932654013</v>
+      </c>
+      <c r="G113" t="n">
+        <v>214.713610600109</v>
+      </c>
+      <c r="H113" t="n">
+        <v>257.822932654013</v>
+      </c>
+      <c r="I113" t="n">
+        <v>214.713610600109</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="n">
+        <v>56</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9.22188822172858</v>
+      </c>
+      <c r="G114" t="n">
+        <v>53.449811566556</v>
+      </c>
+      <c r="H114" t="n">
+        <v>65.2218882217286</v>
+      </c>
+      <c r="I114" t="n">
+        <v>53.449811566556</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>180</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>90.7866205583901</v>
+      </c>
+      <c r="G115" t="n">
+        <v>154.015483938329</v>
+      </c>
+      <c r="H115" t="n">
+        <v>270.78662055839</v>
+      </c>
+      <c r="I115" t="n">
+        <v>154.015483938329</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D116" t="n">
+        <v>48</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>77.8332357591845</v>
+      </c>
+      <c r="G116" t="n">
+        <v>201.985050382691</v>
+      </c>
+      <c r="H116" t="n">
+        <v>125.833235759184</v>
+      </c>
+      <c r="I116" t="n">
+        <v>201.985050382691</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D117" t="n">
+        <v>87</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>29.0999542946675</v>
+      </c>
+      <c r="G117" t="n">
+        <v>48.7528135274653</v>
+      </c>
+      <c r="H117" t="n">
+        <v>116.099954294668</v>
+      </c>
+      <c r="I117" t="n">
+        <v>48.7528135274653</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D118" t="n">
+        <v>48</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="n">
+        <v>175.711858826299</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118" t="n">
+        <v>223.711858826299</v>
+      </c>
+      <c r="I118" t="n">
+        <v>294.668607019649</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D119" t="n">
+        <v>52</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14.611287363914</v>
+      </c>
+      <c r="G119" t="n">
+        <v>39.7414988997176</v>
+      </c>
+      <c r="H119" t="n">
+        <v>66.611287363914</v>
+      </c>
+      <c r="I119" t="n">
+        <v>39.7414988997176</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="n">
+        <v>145</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>21.3565777004642</v>
+      </c>
+      <c r="G120" t="n">
+        <v>37.1853949033687</v>
+      </c>
+      <c r="H120" t="n">
+        <v>166.356577700464</v>
+      </c>
+      <c r="I120" t="n">
+        <v>37.1853949033687</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D121" t="n">
+        <v>292</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>62.4536223833356</v>
+      </c>
+      <c r="H121" t="n">
+        <v>292</v>
+      </c>
+      <c r="I121" t="n">
+        <v>62.4536223833356</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
